--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -15,8 +15,9 @@
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
     <sheet name="1.산책" sheetId="1" r:id="rId2"/>
     <sheet name="1.1.선물" sheetId="6" r:id="rId3"/>
-    <sheet name="1.2.캐릭터" sheetId="11" r:id="rId4"/>
-    <sheet name="1.3.카메라" sheetId="13" r:id="rId5"/>
+    <sheet name="gift" sheetId="14" r:id="rId4"/>
+    <sheet name="1.2.캐릭터" sheetId="11" r:id="rId5"/>
+    <sheet name="1.3.카메라" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,8 +28,2195 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KGA_23</author>
+    <author>KGA_25</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물리스트에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> index</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글명으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방식을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미니맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>느낌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미니맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상호명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구매</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소모하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수량을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단위는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">KGA_23:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Y</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상호명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_25:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타임
+단위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>칼럼은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "giftType"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제어를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">받는다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상승</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하락</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="198">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +2230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">유저의 총 플레이 타임을 높이기 위한 콘텐츠가 필요 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 콘텐츠만으로는 단순해지는 게임 플레이를 한층 더 복합적으로 구성하기 위함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +2238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리는 '산책'에서 언제든 열고 닫을 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인벤토리를 열면 선물을 버리거나 선물할 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +2254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선물 개수는 아이템 이미지 오른쪽 하단에 숫자로 표시되며 최대 개수는 9개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">산책 기획서 목차 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +2285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산책 중에는 '스토리 모드'를 실행할 수 없고, 반대도 불가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +2316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;연애는 처음이라서&gt;의 서브 콘텐츠. 메인 콘텐츠인 '스토리 모드' 외의 호감도와 코인을 획득할 수 있다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퇴장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,9 +2338,6 @@
   <si>
     <t xml:space="preserve">캐릭터를 호출 시켰을 때 캐릭터를 퇴장시킬 수 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물</t>
   </si>
   <si>
     <t xml:space="preserve">like 선물 전달 시 </t>
@@ -326,23 +2491,11 @@
     <t xml:space="preserve">조건에 따라 코인과 호감도를 획득한다.  </t>
   </si>
   <si>
-    <t>특정 지점을 돌아다니며 선물을 획득할 수 있고 인벤토리에 보관되며 캐릭터에게 전달할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책 모드에선 '스토리 모드'와 달리 유저가 자유롭게 돌아다니며 선물을 구매/획득/전달할 수 있고 캐릭터와 사진도 찍을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">정의 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기획의도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서브 콘텐츠에서도 VPS 연출을 보여주기 위한 시스템 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -463,132 +2616,289 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>▶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특정 장소에 위치한 "선물 상자" 에셋을 터치하면 선물 에셋과 코인 에셋이 출력된다.   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상점에서 선물명, 호감도 상승 수치, 선물 가격, 선물에 대한 간단한 설명이 같이 표시가 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">획득/구매한 선물은 인벤토리를 통해 캐릭터에게 전달하거나 폐기할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쿨타임 활성화: 선물 획득 시, 선물에 입력된 쿨타임이 적용된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물의 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책모드에서만 선물을 무료 획득/유료 구매할 수 있고 인벤토리에 보관한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쿨타임 비 활성화: 1. 해당 선물을 획득한 적이 없을 때 2. 선물에 입력된 쿨타임이 다 끝났을 때  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 획득과 유료 구매의 차이점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 활성화/비 활성화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유료로 획득한 선물은 무조건 호감도 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 팝업은 최소 1개에서 최대 3개의 선물이 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물의 전달 및 폐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 콘텐츠 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 내 '캐릭터'의 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포즈를 취하는 중 다른 모션을 요청 하면 요청된 모션으로 교체 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모션의 종류는 기획서 1.0 버전 상 3가지로 정의 하나, 이후 최대 5개까지도 고려 하고 있음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이후 IDLE 모션으로 복귀 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포즈 요청을 누르면 하나짱이 해당 모션을 6초간 출력함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 적으로 포즈 입력이 없을 경우 IDLE 모션을 출력함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 유저가 터치하는 부분으로 이동하여, 이동이 끝나면 유저를 응시함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후면 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v 모션과 윙크 모션 두가지 중. 하나를 5초간 출력 후 다음 모션으로 넘어감 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전면 카메라를 킬 경우 하나짱의 가슴 위 부분이 화면 우측에 위치함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전면 카메라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포즈 요청 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후면 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 실행시 전면 카메라 화면 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전환 아이콘 터치 하면 후면 카메라로 전환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">후면 카메라에서 포즈 요청 버튼 터치시 포즈 목록 팝업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포즈를 선택 할 경우 하나짱이 해당 포즈를 취하며 팝업 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포즈를 요청 하지 않을 경우, 팝업 이외의 부분을 터치시 팝업 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가기 버튼 터치 시 카메라 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카메라 모드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전면 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관련 대사와 애니메이션이 출력되고 호감도가 상승한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관련 대사와 애니메이션이 출력되고 호감도가 하락한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책</t>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저의 총 플레이 타임을 높이기 위한 콘텐츠가 필요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;연애는 처음이라서&gt;의 서브 콘텐츠. 메인 콘텐츠인 '스토리 모드' 외의 호감도와 코인을 획득할 수 있다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 모드에선 '스토리 모드'와 달리 유저가 자유롭게 돌아다니며 선물을 구매/획득/전달할 수 있고 캐릭터와 사진도 찍을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 중에는 '스토리 모드'를 실행할 수 없고, 반대도 불가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 돌아다니며 선물을 획득할 수 있고 인벤토리에 보관되며 캐릭터에게 전달할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서브 콘텐츠에서도 VPS 연출을 보여주기 위한 시스템 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>호감도와 코인을 획득하기 위한 서브 콘텐츠 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>▶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">특정 장소에 위치한 "선물 상자" 에셋을 터치하면 선물 에셋과 코인 에셋이 출력된다.   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 장소에 위치한 "빛나는 선물 상자" 에셋을 터치하면 상점 팝업이 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상점에서 선물명, 호감도 상승 수치, 선물 가격, 선물에 대한 간단한 설명이 같이 표시가 된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">획득/구매한 선물은 인벤토리를 통해 캐릭터에게 전달하거나 폐기할 수 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전체 기능 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임 활성화: 선물 획득 시, 선물에 입력된 쿨타임이 적용된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물의 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책모드에서만 선물을 무료 획득/유료 구매할 수 있고 인벤토리에 보관한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임 비 활성화: 1. 해당 선물을 획득한 적이 없을 때 2. 선물에 입력된 쿨타임이 다 끝났을 때  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코인 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무료 획득과 유료 구매의 차이점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨타임 활성화/비 활성화 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">특정 장소에서 획득 후 바로 사라지지 않고 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿨타임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 존재한다. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보관 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통</t>
+    <t xml:space="preserve">무료로 획득한 선물은 Like/Hate가 구분되어 있고 이에 따른 호감도 상승과 하락이 존재한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -645,19 +2955,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">무료로 획득한 선물은 Like/Hate가 구분되어 있고 이에 따른 호감도 상승과 하락이 존재한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">유료로 획득한 선물은 무조건 호감도 상승한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 팝업은 최소 1개에서 최대 3개의 선물이 출력된다.</t>
+    <t xml:space="preserve">선물의 기능엔 획득, 전달, 폐기가 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 장소에 위치한 "빛나는 선물 상자" 에셋을 터치하면 상점 팝업이 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선물의 전달 및 폐기는 전부 "인벤토리"에서 이루어진다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,169 +2971,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선물의 전달 및 폐기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선물의 전달 및 폐기는 전부 "인벤토리"에서 이루어진다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정의 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>▶1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선물의 기능엔 획득, 전달, 폐기가 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책 콘텐츠 요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책 내 '캐릭터'의 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">무분별한 호출로 인한 오류를 방지하기 위해 호출은 재사용 대기시간 10초로 지정한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 현재 좌표를 인식하여 뒤에서 출현한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포즈를 취하는 중 다른 모션을 요청 하면 요청된 모션으로 교체 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변수 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모션의 종류는 기획서 1.0 버전 상 3가지로 정의 하나, 이후 최대 5개까지도 고려 하고 있음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이후 IDLE 모션으로 복귀 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포즈 요청을 누르면 하나짱이 해당 모션을 6초간 출력함 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 적으로 포즈 입력이 없을 경우 IDLE 모션을 출력함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나짱이 유저가 터치하는 부분으로 이동하여, 이동이 끝나면 유저를 응시함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후면 카메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">v 모션과 윙크 모션 두가지 중. 하나를 5초간 출력 후 다음 모션으로 넘어감 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전면 카메라를 킬 경우 하나짱의 가슴 위 부분이 화면 우측에 위치함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전면 카메라 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포즈 요청 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후면 카메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 실행시 전면 카메라 화면 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전환 아이콘 터치 하면 후면 카메라로 전환 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">후면 카메라에서 포즈 요청 버튼 터치시 포즈 목록 팝업 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포즈를 선택 할 경우 하나짱이 해당 포즈를 취하며 팝업 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포즈를 요청 하지 않을 경우, 팝업 이외의 부분을 터치시 팝업 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌아가기 버튼 터치 시 카메라 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라</t>
-  </si>
-  <si>
-    <t>카메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">카메라 모드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전면 카메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관련 대사와 애니메이션이 출력되고 호감도가 상승한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관련 대사와 애니메이션이 출력되고 호감도가 하락한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산책</t>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기능 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자:</t>
+    <t>인벤토리는 '산책'에서 언제든 열고 닫을 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선물 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftType_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에셋 파일 주소 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케챱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노브랜드 버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/food-pack-free-demo-225294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Ketchup.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커피가루 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/lowpoly-fantasy-bags-156997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coffee.prefab</t>
+  </si>
+  <si>
+    <t>무분별한 호출로 인한 오류를 방지하기 위해 호출은 재사용 대기시간 5초로 지정한다. (public)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출할 때 캐릭터가 다음 내용으로 대사를 한다 : "나 불렀어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴장할 때 캐릭터가 다음 내용으로 대사를 한다 : "너랑 있으니까 즐거워~들어갈게!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 표시되는건 2D 이미지 아이콘. 정확한 크기는 UI 기획서 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 있는 아이콘을 1초간 꾹 누르면 선물 전달 / 선물 폐기 아이콘이 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 개수는 아이템 이미지 오른쪽 하단에 숫자로 표시되며 한 아이템 당 최대 보유 가능 개수는 9개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 전달은 캐릭터 "호출" 상태일 때만 가능 (1.2. 캐릭터 sheet 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 폐기는 캐릭터 호출과 상관 없이 언제든 가능. 단, 유료로 구매한 선물일 경우 경고창으로 한번 더 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토타입처럼 같이 움직이게 해주시면 감사하겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 화면 프레임 밖에서 다시 프레임 안으로 걸어들어오는 듯한 느낌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호출 기능을 발동한 시점부터 플레이어 현재 좌표를 인식하여 그 주변 범위 5m에서 출현한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ이 때 획득 가능한 코인의 value는 150으로 고정한다.(public), 쿨타임은 3분으로 고정한다.(public)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">특정 장소에서 획득 후 바로 사라지지 않고 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 존재한다. 선물마다 쿨타임은 상이하다.  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저가 촬영 버튼을 누를때 , 카메라 프레임 부분안의 장면을 캡쳐-저장 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 디바이스 저장소에 접근해서 사진을 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +3186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,6 +3303,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -973,7 +3361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1085,6 +3473,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1094,7 +3493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,9 +3542,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,9 +3556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1206,9 +3599,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,21 +3620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1253,24 +3628,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1299,10 +3656,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,233 +3848,509 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7504580" y="5233987"/>
+          <a:ext cx="9636499" cy="7391680"/>
+          <a:chOff x="7324725" y="3848100"/>
+          <a:chExt cx="9725025" cy="7486650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="그림 13"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="1749" t="2018" r="6365" b="3068"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7324725" y="3848100"/>
+            <a:ext cx="9725025" cy="7486650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="직사각형 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7505700" y="4162425"/>
+            <a:ext cx="1809750" cy="533400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>선물의 획득</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>FLOW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11006959" y="9897317"/>
+            <a:ext cx="2114550" cy="752475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="28575" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>획득한 아이템이 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>이미 보유 중인</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>아이템일</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>경우 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>아이템 당 최대 보유 개수</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+              <a:t>(9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>개</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>를 체크 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="3" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="13121509" y="9991370"/>
+            <a:ext cx="843059" cy="282185"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>467525</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>29319</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="그룹 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7343775" y="11915775"/>
-          <a:ext cx="5734850" cy="5334744"/>
+          <a:off x="7323604" y="12973610"/>
+          <a:ext cx="5716921" cy="5422150"/>
+          <a:chOff x="7343775" y="12344400"/>
+          <a:chExt cx="5734850" cy="5334744"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="그림 17"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7343775" y="12344400"/>
+            <a:ext cx="5734850" cy="5334744"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="직사각형 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10972800" y="12525375"/>
+            <a:ext cx="1809750" cy="638175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>선물의  전달 및 폐기</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>FLOW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10515600" y="14135100"/>
+            <a:ext cx="1171575" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="28575" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>초간 꾹 클릭 </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="직선 화살표 연결선 15"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10125075" y="14316075"/>
+            <a:ext cx="352425" cy="100013"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="1749" t="2018" r="6365" b="3068"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7324725" y="3848100"/>
-          <a:ext cx="9725025" cy="7486650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="직사각형 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496175" y="4048125"/>
-          <a:ext cx="1809750" cy="723900"/>
+          <a:off x="10487025" y="10125075"/>
+          <a:ext cx="933450" cy="885825"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>선물의 획득</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>FLOW</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="직사각형 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10972800" y="12096750"/>
-          <a:ext cx="1809750" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>선물의  전달 및 폐기</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>FLOW</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2503,553 +5202,557 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="41"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="40"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="40"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>153</v>
+      <c r="B20" s="38"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="40" t="s">
-        <v>154</v>
+      <c r="B21" s="38"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="37" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="39"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="38"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="64"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="64"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63">
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
+    </row>
+    <row r="26" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="76">
         <v>1</v>
       </c>
-      <c r="H26" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="64"/>
+      <c r="H26" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="64"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63">
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H28" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
+      <c r="H28" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63">
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49">
         <v>1.2</v>
       </c>
-      <c r="H30" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
+      <c r="H30" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="64"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49">
         <v>1.3</v>
       </c>
-      <c r="H32" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="64"/>
+      <c r="H32" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="64"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="64"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="64"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="67"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3061,6 +5764,7 @@
     <hyperlink ref="H28" location="'1.1.선물'!A1" display="선물"/>
     <hyperlink ref="H30" location="'1.2.캐릭터'!A1" display="캐릭터"/>
     <hyperlink ref="H32" location="'1.3.카메라'!A1" display="카메라"/>
+    <hyperlink ref="J28" location="gift!A1" display="gift"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3071,9 +5775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD227"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3103,20 +5805,20 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="B2" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3126,18 +5828,18 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3213,10 +5915,10 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3238,10 +5940,10 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3328,10 +6030,10 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3353,10 +6055,10 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3378,10 +6080,10 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3403,10 +6105,10 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3449,10 +6151,10 @@
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3518,10 +6220,10 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3543,10 +6245,10 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3568,10 +6270,10 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3593,17 +6295,16 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3640,7 +6341,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3683,10 +6384,10 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -3709,7 +6410,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -3732,7 +6433,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3775,10 +6476,10 @@
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3801,7 +6502,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3866,10 +6567,10 @@
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -3903,7 +6604,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -8112,9 +10813,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8132,9 +10833,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -8148,19 +10849,19 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -8174,16 +10875,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -8205,9 +10906,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -8224,7 +10925,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -8233,7 +10934,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="35"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -8255,9 +10956,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -8274,7 +10975,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -8300,15 +11001,15 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -8331,8 +11032,8 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -8350,7 +11051,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="7"/>
@@ -8375,14 +11076,14 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -8398,23 +11099,23 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="26" t="s">
-        <v>47</v>
+      <c r="B12" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8426,23 +11127,23 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8454,23 +11155,23 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -8482,11 +11183,11 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>79</v>
+      <c r="B15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -8511,10 +11212,10 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8534,9 +11235,9 @@
     </row>
     <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10"/>
@@ -8547,9 +11248,9 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -8558,37 +11259,37 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
+    <row r="18" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -8613,10 +11314,10 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -8641,24 +11342,24 @@
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+        <v>192</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -8669,24 +11370,24 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+        <v>147</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -8698,19 +11399,19 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -8722,7 +11423,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8748,7 +11449,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8772,22 +11473,22 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -8798,20 +11499,20 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="26"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -8824,7 +11525,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="10"/>
@@ -8835,9 +11536,9 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -8846,48 +11547,48 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
+    <row r="29" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
+      <c r="C30" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -8899,19 +11600,19 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -8923,23 +11624,23 @@
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -8951,21 +11652,21 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -8977,21 +11678,21 @@
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -9003,21 +11704,21 @@
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -9029,21 +11730,19 @@
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -9055,19 +11754,21 @@
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="C37" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -9078,24 +11779,22 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -9107,21 +11806,19 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -9132,22 +11829,24 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -9159,21 +11858,21 @@
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -9185,21 +11884,21 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="C42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -9211,19 +11910,21 @@
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="C43" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -9234,108 +11935,98 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="26"/>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
       <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="26"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="1"/>
@@ -9348,75 +12039,75 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="32" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="F48" s="24"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="26"/>
+      <c r="C49" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="24"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="26"/>
+      <c r="C50" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="24"/>
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
@@ -9437,16 +12128,16 @@
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="26"/>
+      <c r="C51" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="24"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
@@ -9467,16 +12158,16 @@
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1"/>
+      <c r="C52" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="24"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -9497,17 +12188,17 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -9527,27 +12218,27 @@
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="2"/>
+      <c r="C54" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="2"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -9557,21 +12248,27 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="2"/>
+      <c r="C55" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="2"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -9581,20 +12278,26 @@
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
+      <c r="C56" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -9606,19 +12309,19 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -9626,26 +12329,24 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -9656,42 +12357,40 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="2"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -9707,9 +12406,7 @@
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -9732,8 +12429,12 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -9756,11 +12457,9 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>5</v>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -9785,9 +12484,7 @@
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -9810,9 +12507,11 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1" t="s">
-        <v>6</v>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -9838,7 +12537,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -9863,7 +12562,9 @@
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -9888,7 +12589,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -9913,9 +12614,7 @@
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -9940,7 +12639,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -9966,22 +12665,22 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="2"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -9991,21 +12690,23 @@
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -10015,21 +12716,23 @@
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="C73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -10040,20 +12743,20 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -10063,21 +12766,23 @@
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="C75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -10087,8 +12792,10 @@
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="26"/>
+      <c r="C76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="24"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -10097,7 +12804,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="26"/>
+      <c r="M76" s="24"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -10111,8 +12818,10 @@
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="26"/>
+      <c r="C77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="24"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -10121,7 +12830,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="26"/>
+      <c r="M77" s="24"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -10135,21 +12844,23 @@
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="C78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -10160,7 +12871,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="26"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -10169,7 +12880,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="26"/>
+      <c r="M79" s="24"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -10184,20 +12895,20 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -10208,7 +12919,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="26"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -10217,7 +12928,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="26"/>
+      <c r="M81" s="24"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -10232,7 +12943,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="26"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -10241,7 +12952,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="26"/>
+      <c r="M82" s="24"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -10256,20 +12967,20 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -10280,20 +12991,20 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -10304,20 +13015,20 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -10328,20 +13039,20 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -10352,20 +13063,20 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -10376,20 +13087,20 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -10400,20 +13111,20 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -12244,6 +14955,54 @@
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
     </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K3"/>
@@ -12255,10 +15014,223 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="72">
+        <v>1</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="72">
+        <v>1</v>
+      </c>
+      <c r="E5" s="72">
+        <v>0</v>
+      </c>
+      <c r="F5" s="72">
+        <v>37.539341</v>
+      </c>
+      <c r="G5" s="72">
+        <v>127.123299</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="72">
+        <v>10</v>
+      </c>
+      <c r="J5" s="72">
+        <v>2</v>
+      </c>
+      <c r="K5" s="72">
+        <v>10</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" s="72"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="72">
+        <v>2</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="72">
+        <v>1</v>
+      </c>
+      <c r="E6" s="72">
+        <v>0</v>
+      </c>
+      <c r="F6" s="72">
+        <v>37.540224000000002</v>
+      </c>
+      <c r="G6" s="72">
+        <v>127.12356200000001</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="72">
+        <v>30</v>
+      </c>
+      <c r="J6" s="72">
+        <v>1</v>
+      </c>
+      <c r="K6" s="72">
+        <v>30</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12266,230 +15238,250 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20"/>
-      <c r="C10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
-        <v>42</v>
+      <c r="B13" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24"/>
-      <c r="C16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>124</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12501,11 +15493,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O56"/>
+  <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12513,386 +15505,386 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="41"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="41"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="41"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="40"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="41"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="41"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="41"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="41"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="41"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="41"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="41"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="41"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C17" s="41"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="40"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C18" s="41"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="40"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="40"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="41"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="40"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="41"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="40"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="41"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C23" s="41"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="40"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="41"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C25" s="41"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="40"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="41"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="40"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="41"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="C28" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -12901,15 +15893,15 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -12917,128 +15909,128 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>1</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="C32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="26">
+      <c r="B33" s="24">
         <v>2</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="C33" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <v>3</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="C34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>4</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="C35" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <v>5</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="C36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>6</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="C37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="51"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -13047,215 +16039,211 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="B42" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="B46" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="B53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="26"/>
-      <c r="C56" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="B56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="24" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2216,7 +2216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3098,10 +3098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리에 있는 아이콘을 1초간 꾹 누르면 선물 전달 / 선물 폐기 아이콘이 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선물 개수는 아이템 이미지 오른쪽 하단에 숫자로 표시되며 한 아이템 당 최대 보유 가능 개수는 9개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3111,10 +3107,6 @@
   </si>
   <si>
     <t>선물 폐기는 캐릭터 호출과 상관 없이 언제든 가능. 단, 유료로 구매한 선물일 경우 경고창으로 한번 더 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 프로토타입처럼 같이 움직이게 해주시면 감사하겠습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3179,6 +3171,26 @@
   </si>
   <si>
     <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 프로토타입처럼 같이 움직이게만 해주시면 감사하겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 있는 아이콘을 1회 터치하면 선물 전달 / 선물 폐기 아이콘이 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘을 다시 터치하거나 인벤토리가 아닌 다른 화면을 터리하면 선물 전달/폐기 아이콘 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※리소스 파일은 04.리소스&gt;에셋에 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※칼럼 참고용 자료이며 정확한 에셋은 추후에 결정될 예정입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3659,6 +3671,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3683,6 +3719,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3700,33 +3739,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4107,7 +4119,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>467525</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>29319</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4118,7 +4130,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="7323604" y="12973610"/>
-          <a:ext cx="5716921" cy="5422150"/>
+          <a:ext cx="5716921" cy="5635062"/>
           <a:chOff x="7343775" y="12344400"/>
           <a:chExt cx="5734850" cy="5334744"/>
         </a:xfrm>
@@ -4210,95 +4222,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10515600" y="14135100"/>
-            <a:ext cx="1171575" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="28575" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>초간 꾹 클릭 </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="직선 화살표 연결선 15"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="10125075" y="14316075"/>
-            <a:ext cx="352425" cy="100013"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5202,36 +5125,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
@@ -5575,10 +5498,10 @@
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="76">
+      <c r="G26" s="61">
         <v>1</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="62" t="s">
         <v>133</v>
       </c>
       <c r="I26" s="49"/>
@@ -5613,13 +5536,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -5805,20 +5728,20 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -5828,18 +5751,18 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -10813,9 +10736,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10849,18 +10774,18 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="25"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -10875,16 +10800,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -11345,7 +11270,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11705,7 +11630,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -12717,7 +12642,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -12793,7 +12718,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="1"/>
@@ -12819,7 +12744,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -12845,7 +12770,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -12870,7 +12795,9 @@
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -12896,19 +12823,19 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -12920,19 +12847,19 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="24"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="24"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -13016,19 +12943,19 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -13135,20 +13062,20 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -15003,6 +14930,30 @@
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
     </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K3"/>
@@ -15015,7 +14966,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N6"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -15033,181 +14984,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="60" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="72">
+      <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="57">
         <v>1</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="57">
         <v>0</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="57">
         <v>37.539341</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="57">
         <v>127.123299</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="57">
         <v>10</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="57">
         <v>2</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="57">
         <v>10</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="N5" s="72"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="72">
+      <c r="B6" s="57">
         <v>2</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="57">
         <v>1</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="57">
         <v>0</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="57">
         <v>37.540224000000002</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="57">
         <v>127.12356200000001</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="57">
         <v>30</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="57">
         <v>1</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="57">
         <v>30</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="N6" s="57"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15228,8 +15189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15238,36 +15199,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
@@ -15398,12 +15359,12 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -15426,7 +15387,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -15497,7 +15458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15505,38 +15466,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -15862,24 +15823,24 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="64" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="64" t="s">
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
@@ -16232,17 +16193,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2216,7 +2216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="202">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2653,10 +2653,6 @@
   </si>
   <si>
     <t>산책모드에서만 선물을 무료 획득/유료 구매할 수 있고 인벤토리에 보관한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">쿨타임 비 활성화: 1. 해당 선물을 획득한 적이 없을 때 2. 선물에 입력된 쿨타임이 다 끝났을 때  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3125,35 +3121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">특정 장소에서 획득 후 바로 사라지지 않고 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쿨타임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 존재한다. 선물마다 쿨타임은 상이하다.  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3191,6 +3158,17 @@
   </si>
   <si>
     <t>※칼럼 참고용 자료이며 정확한 에셋은 추후에 결정될 예정입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쿨타임 비 활성화: 1. 해당 선물을 획득한 적이 없을 때 2. 선물에 입력된 쿨타임이 다 끝났을 때  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 끝나면 에셋이 다시 생성되며 선물마다 쿨타임은 상이하다.</t>
+  </si>
+  <si>
+    <t>특정 장소에서 획득하면 사라지고 쿨타임 활성화 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3864,13 +3842,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3880,8 +3858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7504580" y="5233987"/>
-          <a:ext cx="9636499" cy="7391680"/>
+          <a:off x="7524751" y="5357812"/>
+          <a:ext cx="9667875" cy="7272337"/>
           <a:chOff x="7324725" y="3848100"/>
           <a:chExt cx="9725025" cy="7486650"/>
         </a:xfrm>
@@ -4113,13 +4091,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>467525</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>29319</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4129,8 +4107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7323604" y="12973610"/>
-          <a:ext cx="5716921" cy="5635062"/>
+          <a:off x="7343775" y="12973050"/>
+          <a:ext cx="5734850" cy="5544294"/>
           <a:chOff x="7343775" y="12344400"/>
           <a:chExt cx="5734850" cy="5334744"/>
         </a:xfrm>
@@ -4229,13 +4207,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5409,10 +5387,10 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -5429,7 +5407,7 @@
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5502,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
@@ -5536,13 +5514,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -5608,7 +5586,7 @@
         <v>1.3</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
@@ -5729,7 +5707,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -5841,7 +5819,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5981,7 +5959,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6006,7 +5984,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6031,7 +6009,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6264,7 +6242,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -6333,7 +6311,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -10736,11 +10714,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10775,7 +10751,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -10900,7 +10876,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -10926,7 +10902,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -11242,7 +11218,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -11270,7 +11246,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11294,11 +11270,9 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11322,8 +11296,12 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -11347,23 +11325,21 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -11374,7 +11350,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -11398,24 +11374,24 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -11425,7 +11401,9 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="24"/>
+      <c r="C27" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="D27" s="24"/>
       <c r="E27" s="3"/>
       <c r="F27" s="24"/>
@@ -11446,20 +11424,18 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -11472,60 +11448,62 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+    <row r="29" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25"/>
       <c r="F31" s="24"/>
@@ -11548,12 +11526,8 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
       <c r="F32" s="24"/>
@@ -11576,9 +11550,11 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C33" s="24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
@@ -11604,10 +11580,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="24"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -11630,7 +11606,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="24" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -11655,7 +11631,9 @@
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="24"/>
+      <c r="C36" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -11679,9 +11657,7 @@
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -11706,7 +11682,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="24" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -11731,7 +11707,9 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -11754,12 +11732,8 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -11782,9 +11756,11 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C41" s="24" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -11810,7 +11786,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="24" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -11862,7 +11838,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="24" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -11887,7 +11863,9 @@
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="24"/>
+      <c r="C45" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -11910,68 +11888,62 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="24"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
       <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>57</v>
-      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -11993,14 +11965,14 @@
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>61</v>
+      <c r="C49" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="2"/>
@@ -12009,9 +11981,9 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="1"/>
@@ -12024,43 +11996,43 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="30" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="30" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="2"/>
@@ -12084,13 +12056,13 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="30" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="2"/>
@@ -12114,13 +12086,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="2"/>
@@ -12143,16 +12115,16 @@
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="31" t="s">
-        <v>63</v>
+      <c r="C54" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="F54" s="24"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
@@ -12174,16 +12146,16 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -12204,26 +12176,26 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="31" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="2"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -12233,9 +12205,15 @@
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="C57" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="2"/>
@@ -12302,44 +12280,44 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -12354,12 +12332,8 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -12382,9 +12356,11 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1" t="s">
-        <v>149</v>
+      <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -12409,7 +12385,9 @@
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -12432,12 +12410,8 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -12460,9 +12434,11 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1" t="s">
-        <v>150</v>
+      <c r="B66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -12488,7 +12464,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -12514,7 +12490,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -12539,7 +12515,9 @@
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -12563,9 +12541,7 @@
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -12590,7 +12566,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -12616,7 +12592,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -12642,22 +12618,22 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="2"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -12667,12 +12643,14 @@
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -12681,7 +12659,7 @@
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -12691,9 +12669,7 @@
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -12718,22 +12694,22 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D76" s="24"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="24"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
@@ -12744,7 +12720,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -12770,7 +12746,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -12796,7 +12772,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
@@ -12821,7 +12797,9 @@
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D80" s="24"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -12847,19 +12825,19 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -12871,19 +12849,19 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="24"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="24"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -12967,19 +12945,19 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -13086,20 +13064,20 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -14953,6 +14931,30 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14985,7 +14987,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -15002,84 +15004,84 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="60" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="D4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="H4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="I4" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="J4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="L4" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="M4" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>169</v>
-      </c>
       <c r="N4" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -15087,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="57">
         <v>1</v>
@@ -15102,7 +15104,7 @@
         <v>127.123299</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="57">
         <v>10</v>
@@ -15114,10 +15116,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>172</v>
-      </c>
-      <c r="M5" s="57" t="s">
-        <v>173</v>
       </c>
       <c r="N5" s="57"/>
     </row>
@@ -15126,7 +15128,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="57">
         <v>1</v>
@@ -15141,7 +15143,7 @@
         <v>127.12356200000001</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="57">
         <v>30</v>
@@ -15153,21 +15155,21 @@
         <v>30</v>
       </c>
       <c r="L6" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" s="57" t="s">
         <v>176</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>177</v>
       </c>
       <c r="N6" s="57"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -15189,9 +15191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15200,7 +15200,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -15359,22 +15359,22 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -15387,7 +15387,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -15410,7 +15410,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -15428,7 +15428,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -15438,7 +15438,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -15458,7 +15458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15467,7 +15467,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -15824,19 +15824,19 @@
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
       <c r="F28" s="75"/>
       <c r="G28" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
       <c r="J28" s="75"/>
       <c r="K28" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" s="76"/>
       <c r="M28" s="76"/>
@@ -15845,7 +15845,7 @@
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -15881,7 +15881,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -15896,7 +15896,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -15911,7 +15911,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -15926,7 +15926,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -15941,7 +15941,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -15956,7 +15956,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -15991,7 +15991,7 @@
     <row r="40" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="43"/>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -16022,7 +16022,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -16035,7 +16035,7 @@
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
       <c r="C43" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -16048,7 +16048,7 @@
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
       <c r="C44" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -16074,7 +16074,7 @@
         <v>13</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -16087,7 +16087,7 @@
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="24"/>
       <c r="C47" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -16100,7 +16100,7 @@
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="C48" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -16113,7 +16113,7 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="24"/>
       <c r="C49" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -16126,7 +16126,7 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="24"/>
       <c r="C50" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
@@ -16139,7 +16139,7 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="24"/>
       <c r="C51" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -16165,7 +16165,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -16178,7 +16178,7 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="24"/>
       <c r="C54" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -16193,17 +16193,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -2216,7 +2216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2955,10 +2955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 장소에 위치한 "빛나는 선물 상자" 에셋을 터치하면 상점 팝업이 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">선물의 전달 및 폐기는 전부 "인벤토리"에서 이루어진다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3169,6 +3165,22 @@
   </si>
   <si>
     <t>특정 장소에서 획득하면 사라지고 쿨타임 활성화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선물은 3D 에셋이 특정 위치에 둥둥 떠다니는 형식으로 연출된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3838,393 +3850,418 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
+      <xdr:colOff>409317</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="그룹 8"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-133" t="2211" r="1207" b="1024"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524751" y="5357812"/>
-          <a:ext cx="9667875" cy="7272337"/>
-          <a:chOff x="7324725" y="3848100"/>
-          <a:chExt cx="9725025" cy="7486650"/>
+          <a:off x="7198179" y="5456465"/>
+          <a:ext cx="9811852" cy="7048499"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="그림 13"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect l="1749" t="2018" r="6365" b="3068"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7324725" y="3848100"/>
-            <a:ext cx="9725025" cy="7486650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="직사각형 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7505700" y="4162425"/>
-            <a:ext cx="1809750" cy="533400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>선물의 획득</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>FLOW</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11006959" y="9897317"/>
-            <a:ext cx="2114550" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331134</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>46301</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7435663" y="13264963"/>
+          <a:ext cx="6550756" cy="6445388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="28575" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>획득한 아이템이 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>이미 보유 중인</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>아이템일</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>경우 </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>아이템 당 최대 보유 개수</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-              <a:t>(9</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>개</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-              <a:t>를 체크 </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="3" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="13121509" y="9991370"/>
-            <a:ext cx="843059" cy="282185"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>483534</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>235884</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>151134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11689416" y="13586012"/>
+          <a:ext cx="1803027" cy="673328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>선물의  전달 및 폐기</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>FLOW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359479</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688036" y="5823857"/>
+          <a:ext cx="1788229" cy="507245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>선물의 획득</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>FLOW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284149</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>467525</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>29319</xdr:rowOff>
+      <xdr:colOff>328774</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13875</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="그룹 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343775" y="12973050"/>
-          <a:ext cx="5734850" cy="5544294"/>
-          <a:chOff x="7343775" y="12344400"/>
-          <a:chExt cx="5734850" cy="5334744"/>
+          <a:off x="10806473" y="11261112"/>
+          <a:ext cx="2095301" cy="720645"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="그림 17"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7343775" y="12344400"/>
-            <a:ext cx="5734850" cy="5334744"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="직사각형 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10972800" y="12525375"/>
-            <a:ext cx="1809750" cy="638175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>선물의  전달 및 폐기</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>FLOW</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>획득한 아이템이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>이미 보유 중인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>아이템일</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>경우 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>아이템 당 최대 보유 개수</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>(9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>개</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>를 체크 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>425823</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297036</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>155442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10487025" y="10125075"/>
-          <a:ext cx="933450" cy="885825"/>
+          <a:off x="10264588" y="10645588"/>
+          <a:ext cx="554772" cy="626089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12944476" y="11391900"/>
+          <a:ext cx="704849" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5514,13 +5551,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" t="s">
         <v>192</v>
       </c>
-      <c r="I28" t="s">
-        <v>193</v>
-      </c>
       <c r="J28" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -10725,7 +10762,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11246,7 +11285,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11272,7 +11311,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11324,8 +11363,12 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -11349,23 +11392,21 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -11376,7 +11417,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -11400,24 +11441,24 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -11427,7 +11468,9 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="24"/>
+      <c r="C28" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="3"/>
       <c r="F28" s="24"/>
@@ -11448,20 +11491,18 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -11474,60 +11515,62 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+    <row r="30" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
       <c r="F32" s="24"/>
@@ -11550,12 +11593,8 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="F33" s="24"/>
@@ -11578,9 +11617,11 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C34" s="24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
@@ -11606,10 +11647,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="24"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -11632,7 +11673,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="24" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -11657,7 +11698,9 @@
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -11681,9 +11724,7 @@
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="24" t="s">
-        <v>144</v>
-      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -11708,7 +11749,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="24" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -11733,7 +11774,9 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="24"/>
+      <c r="C40" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -11756,12 +11799,8 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -11784,9 +11823,11 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C42" s="24" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -12386,7 +12427,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -12464,7 +12505,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -12490,7 +12531,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -12644,7 +12685,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -12694,7 +12735,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -12720,7 +12761,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -12746,7 +12787,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -12772,7 +12813,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
@@ -12798,7 +12839,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="1"/>
@@ -14968,9 +15009,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14987,7 +15030,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -15004,84 +15047,84 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="60" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="D4" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="H4" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="I4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="J4" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="L4" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="M4" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>168</v>
-      </c>
       <c r="N4" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -15089,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="57">
         <v>1</v>
@@ -15104,7 +15147,7 @@
         <v>127.123299</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="57">
         <v>10</v>
@@ -15116,10 +15159,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>171</v>
-      </c>
-      <c r="M5" s="57" t="s">
-        <v>172</v>
       </c>
       <c r="N5" s="57"/>
     </row>
@@ -15128,7 +15171,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="57">
         <v>1</v>
@@ -15143,7 +15186,7 @@
         <v>127.12356200000001</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I6" s="57">
         <v>30</v>
@@ -15155,21 +15198,26 @@
         <v>30</v>
       </c>
       <c r="L6" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="57" t="s">
         <v>175</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>176</v>
       </c>
       <c r="N6" s="57"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -15359,22 +15407,22 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -15387,7 +15435,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -15410,7 +15458,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -15458,7 +15506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16193,17 +16241,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -35,7 +35,7 @@
     <author>KGA_25</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2103,7 +2103,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>해당</t>
+          <t>선물에</t>
         </r>
         <r>
           <rPr>
@@ -2122,7 +2122,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물의</t>
+          <t>대한</t>
         </r>
         <r>
           <rPr>
@@ -2141,7 +2141,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>에셋</t>
+          <t>기본</t>
         </r>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>파일</t>
+          <t>묘사와</t>
         </r>
         <r>
           <rPr>
@@ -2179,7 +2179,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>주소명을</t>
+          <t>설명을</t>
         </r>
         <r>
           <rPr>
@@ -2198,7 +2198,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기재한다</t>
+          <t>입력한다</t>
         </r>
         <r>
           <rPr>
@@ -2207,7 +2207,658 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전달받고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>난</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒤의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반응을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>볼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">에셋
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RoketTeam -&gt; 04.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리소스에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>찾아볼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인벤토리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아이콘
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RoketTeam -&gt; 04.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리소스에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>찾아볼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -2216,7 +2867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="209">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3181,6 +3832,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_explainText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_charText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10753,7 +11420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15009,11 +15676,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N34"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15023,211 +15688,231 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C5" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D5" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E5" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F5" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G5" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H5" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I5" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J5" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K5" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L5" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="O5" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="P5" s="60" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D6" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E6" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F6" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G6" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H6" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I6" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J6" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K6" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L6" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="O6" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="P6" s="58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="57">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C7" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D7" s="57">
         <v>1</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E7" s="57">
         <v>0</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F7" s="57">
         <v>37.539341</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G7" s="57">
         <v>127.123299</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H7" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I7" s="57">
         <v>10</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J7" s="57">
         <v>2</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K7" s="57">
         <v>10</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="O7" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="N5" s="57"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="57">
+      <c r="P7" s="57"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D8" s="57">
         <v>1</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E8" s="57">
         <v>0</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F8" s="57">
         <v>37.540224000000002</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G8" s="57">
         <v>127.12356200000001</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H8" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I8" s="57">
         <v>30</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J8" s="57">
         <v>1</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K8" s="57">
         <v>30</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="O8" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="N6" s="57"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+      <c r="P8" s="57"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="N7" r:id="rId1"/>
+    <hyperlink ref="N8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>KGA_25</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2103,7 +2103,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물에</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -2122,7 +2122,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대한</t>
+          <t>선물의</t>
         </r>
         <r>
           <rPr>
@@ -2141,7 +2141,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기본</t>
+          <t>에셋</t>
         </r>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>묘사와</t>
+          <t>파일</t>
         </r>
         <r>
           <rPr>
@@ -2179,7 +2179,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>설명을</t>
+          <t>주소명을</t>
         </r>
         <r>
           <rPr>
@@ -2198,7 +2198,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>입력한다</t>
+          <t>기재한다</t>
         </r>
         <r>
           <rPr>
@@ -2207,658 +2207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KGA_23:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선물을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>전달받고</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>난</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>뒤의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>캐릭터의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>볼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대사를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>입력한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KGA_23:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선물의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에셋</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>파일</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주소명을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기재한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KGA_23:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3D </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선물</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">에셋
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RoketTeam -&gt; 04.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>찾아볼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KGA_23:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인벤토리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 2D </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">아이콘
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RoketTeam -&gt; 04.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>리소스에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>찾아볼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
         </r>
       </text>
     </comment>
@@ -2867,7 +2216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="221">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3835,19 +3184,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_explainText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_charText</t>
+    <t>스케이트 보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커피 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스 장난감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭귄 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드 팩토리샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스시진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU 편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피베이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 종합 문구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3855,7 +3252,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4006,6 +3406,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -4162,7 +3571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4340,9 +3749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4396,6 +3802,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5798,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5807,36 +5228,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
@@ -6180,10 +5601,10 @@
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="61">
+      <c r="G26" s="60">
         <v>1</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="61" t="s">
         <v>132</v>
       </c>
       <c r="I26" s="49"/>
@@ -6410,20 +5831,20 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -6433,18 +5854,18 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -11420,7 +10841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11456,18 +10877,18 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="25"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -11482,16 +10903,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -15676,9 +15097,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15688,231 +15111,549 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="77">
+        <v>1</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="77">
+        <v>1</v>
+      </c>
+      <c r="E5" s="77">
+        <v>0</v>
+      </c>
+      <c r="F5" s="77">
+        <v>37.539341</v>
+      </c>
+      <c r="G5" s="77">
+        <v>127.123299</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="77">
+        <v>180</v>
+      </c>
+      <c r="J5" s="77">
+        <v>2</v>
+      </c>
+      <c r="K5" s="77">
+        <v>10</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="77"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="77">
+        <v>2</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="77">
+        <v>1</v>
+      </c>
+      <c r="E6" s="77">
+        <v>0</v>
+      </c>
+      <c r="F6" s="77">
+        <v>37.540224000000002</v>
+      </c>
+      <c r="G6" s="77">
+        <v>127.12356200000001</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="77">
+        <v>180</v>
+      </c>
+      <c r="J6" s="77">
+        <v>1</v>
+      </c>
+      <c r="K6" s="77">
+        <v>30</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="77"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="79">
+        <v>3</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="79">
+        <v>1</v>
+      </c>
+      <c r="E7" s="79">
+        <v>0</v>
+      </c>
+      <c r="F7" s="79">
+        <v>37.539805999999999</v>
+      </c>
+      <c r="G7" s="79">
+        <v>127.122469</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="79">
+        <v>180</v>
+      </c>
+      <c r="J7" s="79">
+        <v>2</v>
+      </c>
+      <c r="K7" s="79">
+        <v>20</v>
+      </c>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="79">
+        <v>4</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="79">
+        <v>1</v>
+      </c>
+      <c r="E8" s="79">
+        <v>0</v>
+      </c>
+      <c r="F8" s="79">
+        <v>37.539861999999999</v>
+      </c>
+      <c r="G8" s="79">
+        <v>127.124106</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="79">
+        <v>180</v>
+      </c>
+      <c r="J8" s="79">
+        <v>2</v>
+      </c>
+      <c r="K8" s="79">
+        <v>20</v>
+      </c>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="79">
+        <v>5</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="79">
+        <v>1</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0</v>
+      </c>
+      <c r="F9" s="81">
+        <v>37.540140000000001</v>
+      </c>
+      <c r="G9" s="79">
+        <v>127.122688</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="79">
+        <v>180</v>
+      </c>
+      <c r="J9" s="79">
+        <v>1</v>
+      </c>
+      <c r="K9" s="79">
+        <v>20</v>
+      </c>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="79">
+        <v>6</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="79">
+        <v>1</v>
+      </c>
+      <c r="E10" s="79">
+        <v>0</v>
+      </c>
+      <c r="F10" s="79">
+        <v>37.539150999999997</v>
+      </c>
+      <c r="G10" s="79">
+        <v>127.12316800000001</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="79">
+        <v>180</v>
+      </c>
+      <c r="J10" s="79">
+        <v>1</v>
+      </c>
+      <c r="K10" s="79">
+        <v>30</v>
+      </c>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="79">
+        <v>7</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="79">
+        <v>2</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="81">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="G11" s="79">
+        <v>127.122348</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="79">
+        <v>180</v>
+      </c>
+      <c r="J11" s="79">
+        <v>1</v>
+      </c>
+      <c r="K11" s="79">
+        <v>40</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="79">
+        <v>8</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="79">
+        <v>2</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="81">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="G12" s="79">
+        <v>127.122348</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="79">
+        <v>180</v>
+      </c>
+      <c r="J12" s="79">
+        <v>1</v>
+      </c>
+      <c r="K12" s="79">
+        <v>40</v>
+      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="79">
+        <v>9</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="79">
+        <v>2</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="81">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="G13" s="79">
+        <v>127.122348</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="79">
+        <v>180</v>
+      </c>
+      <c r="J13" s="79">
+        <v>1</v>
+      </c>
+      <c r="K13" s="79">
+        <v>60</v>
+      </c>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="79">
+        <v>10</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="79">
+        <v>2</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="81">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="G14" s="79">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="79">
+        <v>180</v>
+      </c>
+      <c r="J14" s="79">
+        <v>1</v>
+      </c>
+      <c r="K14" s="79">
+        <v>80</v>
+      </c>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="79">
+        <v>11</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="79">
+        <v>2</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="81">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="G15" s="79">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="79">
+        <v>180</v>
+      </c>
+      <c r="J15" s="79">
+        <v>2</v>
+      </c>
+      <c r="K15" s="79">
+        <v>20</v>
+      </c>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="79">
+        <v>12</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="79">
+        <v>2</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="81">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="G16" s="79">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="79">
+        <v>180</v>
+      </c>
+      <c r="J16" s="79">
+        <v>2</v>
+      </c>
+      <c r="K16" s="79">
+        <v>20</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="57">
-        <v>1</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="57">
-        <v>1</v>
-      </c>
-      <c r="E7" s="57">
-        <v>0</v>
-      </c>
-      <c r="F7" s="57">
-        <v>37.539341</v>
-      </c>
-      <c r="G7" s="57">
-        <v>127.123299</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="57">
-        <v>10</v>
-      </c>
-      <c r="J7" s="57">
-        <v>2</v>
-      </c>
-      <c r="K7" s="57">
-        <v>10</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="P7" s="57"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="57">
-        <v>2</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="57">
-        <v>1</v>
-      </c>
-      <c r="E8" s="57">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57">
-        <v>37.540224000000002</v>
-      </c>
-      <c r="G8" s="57">
-        <v>127.12356200000001</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="57">
-        <v>30</v>
-      </c>
-      <c r="J8" s="57">
-        <v>1</v>
-      </c>
-      <c r="K8" s="57">
-        <v>30</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="P8" s="57"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1"/>
-    <hyperlink ref="N8" r:id="rId2"/>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -15932,36 +15673,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
@@ -16199,38 +15940,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -16556,24 +16297,24 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="73" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="73" t="s">
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="76"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -2216,7 +2216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="231">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3245,6 +3245,46 @@
   </si>
   <si>
     <t>캐릭터 종합 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/vehicles/land/bicycle-scooter-skateboard-170056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/free-casual-food-pack-mobile-vr-85884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/cola-can-96659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/japanese-food-sushi-free-158209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/6-x-3d-cute-toy-models-105033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/super-rubber-duck-pack-34781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/vehicles/children-s-wooden-toys-free-truck-pack-97476</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3571,7 +3611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3758,6 +3798,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3803,19 +3858,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5228,36 +5271,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
@@ -5831,20 +5874,20 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -5854,18 +5897,18 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -10877,18 +10920,18 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="25"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -10903,16 +10946,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -15099,8 +15142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15111,27 +15154,27 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
@@ -15216,420 +15259,440 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="77">
+      <c r="B5" s="62">
         <v>1</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="62">
         <v>0</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="62">
         <v>37.539341</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="62">
         <v>127.123299</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="62">
         <v>180</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="62">
         <v>2</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="62">
         <v>10</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="N5" s="77"/>
+      <c r="N5" s="62"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="77">
+      <c r="B6" s="62">
         <v>2</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="62">
         <v>1</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="62">
         <v>0</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="62">
         <v>37.540224000000002</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="62">
         <v>127.12356200000001</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="62">
         <v>180</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="62">
         <v>1</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="62">
         <v>30</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="79">
+      <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="64">
         <v>0</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="64">
         <v>37.539805999999999</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="64">
         <v>127.122469</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="64">
         <v>180</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="64">
         <v>2</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="64">
         <v>20</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
+      <c r="L7" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="79">
+      <c r="B8" s="64">
         <v>4</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="64">
         <v>1</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="64">
         <v>0</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="64">
         <v>37.539861999999999</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="64">
         <v>127.124106</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="64">
         <v>180</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="64">
         <v>2</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="64">
         <v>20</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
+      <c r="L8" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="79">
+      <c r="B9" s="64">
         <v>5</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="64">
         <v>1</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="64">
         <v>0</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="66">
         <v>37.540140000000001</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="64">
         <v>127.122688</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="64">
         <v>180</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="64">
         <v>1</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="64">
         <v>20</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
+      <c r="L9" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="79">
+      <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="64">
         <v>1</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="64">
         <v>0</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="64">
         <v>37.539150999999997</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="64">
         <v>127.12316800000001</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="64">
         <v>180</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="64">
         <v>1</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="64">
         <v>30</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="L10" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="79">
+      <c r="B11" s="64">
         <v>7</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="64">
         <v>2</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="81">
+      <c r="E11" s="64"/>
+      <c r="F11" s="66">
         <v>37.539279999999998</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="64">
         <v>127.122348</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="64">
         <v>180</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="64">
         <v>1</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="64">
         <v>40</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="L11" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="79">
+      <c r="B12" s="64">
         <v>8</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="64">
         <v>2</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="81">
+      <c r="E12" s="64"/>
+      <c r="F12" s="66">
         <v>37.539279999999998</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="64">
         <v>127.122348</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="64">
         <v>180</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="64">
         <v>1</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="64">
         <v>40</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="L12" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="79">
+      <c r="B13" s="64">
         <v>9</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="64">
         <v>2</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="81">
+      <c r="E13" s="64"/>
+      <c r="F13" s="66">
         <v>37.539279999999998</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="64">
         <v>127.122348</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="64">
         <v>180</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="64">
         <v>1</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="64">
         <v>60</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="L13" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="79">
+      <c r="B14" s="64">
         <v>10</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="64">
         <v>2</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="81">
+      <c r="E14" s="64"/>
+      <c r="F14" s="66">
         <v>37.539385000000003</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="64">
         <v>127.12275099999999</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="64">
         <v>180</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="64">
         <v>1</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="64">
         <v>80</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="79">
+      <c r="B15" s="64">
         <v>11</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="64">
         <v>2</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="81">
+      <c r="E15" s="64"/>
+      <c r="F15" s="66">
         <v>37.539385000000003</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="64">
         <v>127.12275099999999</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="79">
+      <c r="I15" s="64">
         <v>180</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="64">
         <v>2</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="64">
         <v>20</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
+      <c r="L15" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="79">
+      <c r="B16" s="64">
         <v>12</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="64">
         <v>2</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="81">
+      <c r="E16" s="64"/>
+      <c r="F16" s="66">
         <v>37.539385000000003</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="64">
         <v>127.12275099999999</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="I16" s="79">
+      <c r="I16" s="64">
         <v>180</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="64">
         <v>2</v>
       </c>
-      <c r="K16" s="79">
+      <c r="K16" s="64">
         <v>20</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
+      <c r="L16" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -15654,10 +15717,20 @@
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1"/>
     <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="L7" r:id="rId3"/>
+    <hyperlink ref="L8" r:id="rId4"/>
+    <hyperlink ref="L9" r:id="rId5"/>
+    <hyperlink ref="L10" r:id="rId6"/>
+    <hyperlink ref="L11" r:id="rId7"/>
+    <hyperlink ref="L12" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L16" r:id="rId10"/>
+    <hyperlink ref="L14" r:id="rId11"/>
+    <hyperlink ref="L15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -15673,36 +15746,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
@@ -15940,38 +16013,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -16297,24 +16370,24 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="72" t="s">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="72" t="s">
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="76"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -255,16 +255,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>KGA_23:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">KGA_23:
 </t>
         </r>
         <r>
@@ -275,7 +266,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>해당</t>
+          <t>선물이</t>
         </r>
         <r>
           <rPr>
@@ -294,7 +285,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물</t>
+          <t>표시되는</t>
         </r>
         <r>
           <rPr>
@@ -313,7 +304,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>획득</t>
+          <t>좌표</t>
         </r>
         <r>
           <rPr>
@@ -322,7 +313,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> X</t>
         </r>
         <r>
           <rPr>
@@ -332,7 +323,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>방식을</t>
+          <t>를</t>
         </r>
         <r>
           <rPr>
@@ -351,7 +342,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>지정한다</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -360,8 +351,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.
-1: </t>
+          <t xml:space="preserve">. </t>
         </r>
         <r>
           <rPr>
@@ -371,7 +361,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>무료</t>
+          <t>소수점</t>
         </r>
         <r>
           <rPr>
@@ -380,7 +370,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(</t>
+          <t xml:space="preserve"> 6</t>
         </r>
         <r>
           <rPr>
@@ -390,7 +380,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>미니맵</t>
+          <t>자리까지</t>
         </r>
         <r>
           <rPr>
@@ -409,7 +399,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>느낌표</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -418,160 +408,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유료</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미니맵</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상호명</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+          <t xml:space="preserve">. </t>
         </r>
       </text>
     </comment>
@@ -605,7 +442,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>해당</t>
+          <t>선물이</t>
         </r>
         <r>
           <rPr>
@@ -624,7 +461,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물을</t>
+          <t>표시되는</t>
         </r>
         <r>
           <rPr>
@@ -643,7 +480,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>구매</t>
+          <t>좌표</t>
         </r>
         <r>
           <rPr>
@@ -652,7 +489,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Y</t>
         </r>
         <r>
           <rPr>
@@ -662,7 +499,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>할</t>
+          <t>를</t>
         </r>
         <r>
           <rPr>
@@ -681,7 +518,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>때</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -690,7 +527,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">. </t>
         </r>
         <r>
           <rPr>
@@ -700,7 +537,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소모하는</t>
+          <t>소수점</t>
         </r>
         <r>
           <rPr>
@@ -709,7 +546,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 6</t>
         </r>
         <r>
           <rPr>
@@ -719,7 +556,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인</t>
+          <t>자리까지</t>
         </r>
         <r>
           <rPr>
@@ -738,7 +575,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>게임</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -747,103 +584,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>재화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수량을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기입한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단위는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>코인</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">. </t>
         </r>
       </text>
     </comment>
@@ -857,7 +598,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">KGA_23:
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -868,7 +618,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물이</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -887,7 +637,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>표시되는</t>
+          <t>선물을</t>
         </r>
         <r>
           <rPr>
@@ -906,7 +656,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>좌표</t>
+          <t>획득할</t>
         </r>
         <r>
           <rPr>
@@ -915,7 +665,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> X</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -925,7 +675,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>를</t>
+          <t>수</t>
         </r>
         <r>
           <rPr>
@@ -944,7 +694,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
+          <t>있는</t>
         </r>
         <r>
           <rPr>
@@ -953,7 +703,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -963,7 +713,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소수점</t>
+          <t>건물의</t>
         </r>
         <r>
           <rPr>
@@ -972,7 +722,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 6</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -982,7 +732,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>자리까지</t>
+          <t>상호명을</t>
         </r>
         <r>
           <rPr>
@@ -1001,7 +751,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
+          <t>한글로</t>
         </r>
         <r>
           <rPr>
@@ -1010,7 +760,141 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안내</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -1044,7 +928,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물이</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -1063,7 +947,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>표시되는</t>
+          <t>선물</t>
         </r>
         <r>
           <rPr>
@@ -1082,7 +966,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>좌표</t>
+          <t>획득</t>
         </r>
         <r>
           <rPr>
@@ -1091,7 +975,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Y</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1101,7 +985,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>를</t>
+          <t>방식을</t>
         </r>
         <r>
           <rPr>
@@ -1120,7 +1004,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
+          <t>지정한다</t>
         </r>
         <r>
           <rPr>
@@ -1129,7 +1013,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t xml:space="preserve">.
+1: </t>
         </r>
         <r>
           <rPr>
@@ -1139,16 +1024,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소수점</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 6</t>
+          <t>무료</t>
         </r>
         <r>
           <rPr>
@@ -1158,7 +1034,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>자리까지</t>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
@@ -1167,7 +1044,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">2: </t>
         </r>
         <r>
           <rPr>
@@ -1177,16 +1054,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. </t>
+          <t>유료</t>
         </r>
       </text>
     </comment>
@@ -1258,7 +1126,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>획득할</t>
+          <t>구매</t>
         </r>
         <r>
           <rPr>
@@ -1277,7 +1145,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>수</t>
+          <t>할</t>
         </r>
         <r>
           <rPr>
@@ -1296,7 +1164,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>있는</t>
+          <t>때</t>
         </r>
         <r>
           <rPr>
@@ -1315,7 +1183,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>건물의</t>
+          <t>소모하는</t>
         </r>
         <r>
           <rPr>
@@ -1334,7 +1202,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>상호명을</t>
+          <t>인</t>
         </r>
         <r>
           <rPr>
@@ -1353,7 +1221,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한글로</t>
+          <t>게임</t>
         </r>
         <r>
           <rPr>
@@ -1372,7 +1240,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
+          <t>재화</t>
         </r>
         <r>
           <rPr>
@@ -1381,8 +1249,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.
-</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1392,7 +1259,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이</t>
+          <t>수량을</t>
         </r>
         <r>
           <rPr>
@@ -1411,7 +1278,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>내용은</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -1420,7 +1287,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">. 
+</t>
         </r>
         <r>
           <rPr>
@@ -1430,7 +1298,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>건물</t>
+          <t>단위는</t>
         </r>
         <r>
           <rPr>
@@ -1449,7 +1317,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>안내</t>
+          <t>코인</t>
         </r>
         <r>
           <rPr>
@@ -1458,45 +1326,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> UI</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>출력된다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
         </r>
       </text>
     </comment>
@@ -2074,6 +1904,201 @@
       </text>
     </comment>
     <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들어갈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>텍스트를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2216,7 +2241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="233">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3285,6 +3310,14 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/3d/vehicles/children-s-wooden-toys-free-truck-pack-97476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3813,6 +3846,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3857,9 +3893,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3981,6 +4014,192 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347384</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67995</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2004</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7451913" y="13200529"/>
+          <a:ext cx="6556200" cy="6445387"/>
+          <a:chOff x="3306535" y="730704"/>
+          <a:chExt cx="6578611" cy="6344534"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="그림 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3306535" y="730704"/>
+            <a:ext cx="6578611" cy="6344534"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="직사각형 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="4162425"/>
+            <a:ext cx="2895600" cy="1171575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5743575" y="4152900"/>
+            <a:ext cx="9525" cy="1257300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3714750" y="4486275"/>
+            <a:ext cx="2000250" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>유료 선물일 경우 경고 안내</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -4002,7 +4221,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect l="-133" t="2211" r="1207" b="1024"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -4014,49 +4233,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>331134</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>8404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>46301</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>66439</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7435663" y="13264963"/>
-          <a:ext cx="6550756" cy="6445388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4420,6 +4596,75 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592736" y="6835588"/>
+          <a:ext cx="1266264" cy="661147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>유료 선물 터치</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>정보 팝업 등장</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5262,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5271,36 +5516,36 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
@@ -5874,20 +6119,20 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -5897,18 +6142,18 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -10884,7 +11129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10920,18 +11165,18 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="25"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -10946,16 +11191,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -15140,614 +15385,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N46"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="4" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="88.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="88.125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="62">
-        <v>1</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="62">
-        <v>1</v>
-      </c>
-      <c r="E5" s="62">
-        <v>0</v>
-      </c>
-      <c r="F5" s="62">
-        <v>37.539341</v>
-      </c>
-      <c r="G5" s="62">
-        <v>127.123299</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="62">
-        <v>180</v>
-      </c>
-      <c r="J5" s="62">
-        <v>2</v>
-      </c>
-      <c r="K5" s="62">
-        <v>10</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" s="62"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="62">
-        <v>2</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="62">
-        <v>1</v>
-      </c>
-      <c r="E6" s="62">
-        <v>0</v>
-      </c>
-      <c r="F6" s="62">
-        <v>37.540224000000002</v>
-      </c>
-      <c r="G6" s="62">
-        <v>127.12356200000001</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="62">
-        <v>180</v>
-      </c>
-      <c r="J6" s="62">
-        <v>1</v>
-      </c>
-      <c r="K6" s="62">
-        <v>30</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" s="62"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="64">
-        <v>3</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="64">
-        <v>1</v>
-      </c>
-      <c r="E7" s="64">
-        <v>0</v>
-      </c>
-      <c r="F7" s="64">
-        <v>37.539805999999999</v>
-      </c>
-      <c r="G7" s="64">
-        <v>127.122469</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" s="64">
-        <v>180</v>
-      </c>
-      <c r="J7" s="64">
-        <v>2</v>
-      </c>
-      <c r="K7" s="64">
-        <v>20</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="64">
-        <v>4</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="64">
-        <v>1</v>
-      </c>
-      <c r="E8" s="64">
-        <v>0</v>
-      </c>
-      <c r="F8" s="64">
-        <v>37.539861999999999</v>
-      </c>
-      <c r="G8" s="64">
-        <v>127.124106</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" s="64">
-        <v>180</v>
-      </c>
-      <c r="J8" s="64">
-        <v>2</v>
-      </c>
-      <c r="K8" s="64">
-        <v>20</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="64">
-        <v>5</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="64">
-        <v>1</v>
-      </c>
-      <c r="E9" s="64">
-        <v>0</v>
-      </c>
-      <c r="F9" s="66">
-        <v>37.540140000000001</v>
-      </c>
-      <c r="G9" s="64">
-        <v>127.122688</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="64">
-        <v>180</v>
-      </c>
-      <c r="J9" s="64">
-        <v>1</v>
-      </c>
-      <c r="K9" s="64">
-        <v>20</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="64">
-        <v>6</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="64">
-        <v>1</v>
-      </c>
-      <c r="E10" s="64">
-        <v>0</v>
-      </c>
-      <c r="F10" s="64">
-        <v>37.539150999999997</v>
-      </c>
-      <c r="G10" s="64">
-        <v>127.12316800000001</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="64">
-        <v>180</v>
-      </c>
-      <c r="J10" s="64">
-        <v>1</v>
-      </c>
-      <c r="K10" s="64">
-        <v>30</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="64">
-        <v>7</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="64">
-        <v>2</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66">
-        <v>37.539279999999998</v>
-      </c>
-      <c r="G11" s="64">
-        <v>127.122348</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" s="64">
-        <v>180</v>
-      </c>
-      <c r="J11" s="64">
-        <v>1</v>
-      </c>
-      <c r="K11" s="64">
-        <v>40</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="64">
-        <v>8</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="64">
-        <v>2</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="66">
-        <v>37.539279999999998</v>
-      </c>
-      <c r="G12" s="64">
-        <v>127.122348</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="I12" s="64">
-        <v>180</v>
-      </c>
-      <c r="J12" s="64">
-        <v>1</v>
-      </c>
-      <c r="K12" s="64">
-        <v>40</v>
-      </c>
-      <c r="L12" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="64">
-        <v>9</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="64">
-        <v>2</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="66">
-        <v>37.539279999999998</v>
-      </c>
-      <c r="G13" s="64">
-        <v>127.122348</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="I13" s="64">
-        <v>180</v>
-      </c>
-      <c r="J13" s="64">
-        <v>1</v>
-      </c>
-      <c r="K13" s="64">
-        <v>60</v>
-      </c>
-      <c r="L13" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="64">
-        <v>10</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="64">
-        <v>2</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="66">
-        <v>37.539385000000003</v>
-      </c>
-      <c r="G14" s="64">
-        <v>127.12275099999999</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="I14" s="64">
-        <v>180</v>
-      </c>
-      <c r="J14" s="64">
-        <v>1</v>
-      </c>
-      <c r="K14" s="64">
-        <v>80</v>
-      </c>
-      <c r="L14" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="64">
-        <v>11</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="64">
-        <v>2</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="66">
-        <v>37.539385000000003</v>
-      </c>
-      <c r="G15" s="64">
-        <v>127.12275099999999</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="I15" s="64">
-        <v>180</v>
-      </c>
-      <c r="J15" s="64">
-        <v>2</v>
-      </c>
-      <c r="K15" s="64">
-        <v>20</v>
-      </c>
-      <c r="L15" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="64">
-        <v>12</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="64">
-        <v>2</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="66">
-        <v>37.539385000000003</v>
-      </c>
-      <c r="G16" s="64">
-        <v>127.12275099999999</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="I16" s="64">
-        <v>180</v>
-      </c>
-      <c r="J16" s="64">
-        <v>2</v>
-      </c>
-      <c r="K16" s="64">
-        <v>20</v>
-      </c>
-      <c r="L16" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2"/>
-    <hyperlink ref="L7" r:id="rId3"/>
-    <hyperlink ref="L8" r:id="rId4"/>
-    <hyperlink ref="L9" r:id="rId5"/>
-    <hyperlink ref="L10" r:id="rId6"/>
-    <hyperlink ref="L11" r:id="rId7"/>
-    <hyperlink ref="L12" r:id="rId8"/>
-    <hyperlink ref="L13" r:id="rId9"/>
-    <hyperlink ref="L16" r:id="rId10"/>
-    <hyperlink ref="L14" r:id="rId11"/>
-    <hyperlink ref="L15" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -15761,21 +15420,626 @@
       <c r="L2" s="76"/>
       <c r="M2" s="76"/>
       <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="62">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="62">
+        <v>37.539341</v>
+      </c>
+      <c r="E5" s="62">
+        <v>127.123299</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="62">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
+      <c r="I5" s="62">
+        <v>180</v>
+      </c>
+      <c r="J5" s="62">
+        <v>2</v>
+      </c>
+      <c r="K5" s="62">
+        <v>10</v>
+      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="62">
+        <v>2</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="62">
+        <v>37.540224000000002</v>
+      </c>
+      <c r="E6" s="62">
+        <v>127.12356200000001</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="62">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
+        <v>180</v>
+      </c>
+      <c r="J6" s="62">
+        <v>1</v>
+      </c>
+      <c r="K6" s="62">
+        <v>30</v>
+      </c>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="64">
+        <v>3</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="64">
+        <v>37.539805999999999</v>
+      </c>
+      <c r="E7" s="64">
+        <v>127.122469</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64">
+        <v>0</v>
+      </c>
+      <c r="I7" s="64">
+        <v>180</v>
+      </c>
+      <c r="J7" s="64">
+        <v>2</v>
+      </c>
+      <c r="K7" s="64">
+        <v>20</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="64">
+        <v>4</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="64">
+        <v>37.539861999999999</v>
+      </c>
+      <c r="E8" s="64">
+        <v>127.124106</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64">
+        <v>0</v>
+      </c>
+      <c r="I8" s="64">
+        <v>180</v>
+      </c>
+      <c r="J8" s="64">
+        <v>2</v>
+      </c>
+      <c r="K8" s="64">
+        <v>20</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="64">
+        <v>5</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="66">
+        <v>37.540140000000001</v>
+      </c>
+      <c r="E9" s="64">
+        <v>127.122688</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="64">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64">
+        <v>0</v>
+      </c>
+      <c r="I9" s="64">
+        <v>180</v>
+      </c>
+      <c r="J9" s="64">
+        <v>1</v>
+      </c>
+      <c r="K9" s="64">
+        <v>20</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="64">
+        <v>6</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="64">
+        <v>37.539150999999997</v>
+      </c>
+      <c r="E10" s="64">
+        <v>127.12316800000001</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64">
+        <v>0</v>
+      </c>
+      <c r="I10" s="64">
+        <v>180</v>
+      </c>
+      <c r="J10" s="64">
+        <v>1</v>
+      </c>
+      <c r="K10" s="64">
+        <v>30</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="64">
+        <v>7</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="66">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="E11" s="64">
+        <v>127.122348</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="64">
+        <v>2</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64">
+        <v>180</v>
+      </c>
+      <c r="J11" s="64">
+        <v>1</v>
+      </c>
+      <c r="K11" s="64">
+        <v>40</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="64">
+        <v>8</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="66">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="E12" s="64">
+        <v>127.122348</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="64">
+        <v>2</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64">
+        <v>180</v>
+      </c>
+      <c r="J12" s="64">
+        <v>1</v>
+      </c>
+      <c r="K12" s="64">
+        <v>40</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="64">
+        <v>9</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="66">
+        <v>37.539279999999998</v>
+      </c>
+      <c r="E13" s="64">
+        <v>127.122348</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="64">
+        <v>2</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64">
+        <v>180</v>
+      </c>
+      <c r="J13" s="64">
+        <v>1</v>
+      </c>
+      <c r="K13" s="64">
+        <v>60</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="64">
+        <v>10</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="66">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="E14" s="64">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="64">
+        <v>2</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64">
+        <v>180</v>
+      </c>
+      <c r="J14" s="64">
+        <v>1</v>
+      </c>
+      <c r="K14" s="64">
+        <v>80</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="64">
+        <v>11</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="66">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="E15" s="64">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="64">
+        <v>2</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64">
+        <v>180</v>
+      </c>
+      <c r="J15" s="64">
+        <v>2</v>
+      </c>
+      <c r="K15" s="64">
+        <v>20</v>
+      </c>
+      <c r="L15" s="64"/>
+      <c r="M15" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="64">
+        <v>12</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="66">
+        <v>37.539385000000003</v>
+      </c>
+      <c r="E16" s="64">
+        <v>127.12275099999999</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="64">
+        <v>2</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64">
+        <v>180</v>
+      </c>
+      <c r="J16" s="64">
+        <v>2</v>
+      </c>
+      <c r="K16" s="64">
+        <v>20</v>
+      </c>
+      <c r="L16" s="64"/>
+      <c r="M16" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="M6" r:id="rId2"/>
+    <hyperlink ref="M7" r:id="rId3"/>
+    <hyperlink ref="M8" r:id="rId4"/>
+    <hyperlink ref="M9" r:id="rId5"/>
+    <hyperlink ref="M10" r:id="rId6"/>
+    <hyperlink ref="M11" r:id="rId7"/>
+    <hyperlink ref="M12" r:id="rId8"/>
+    <hyperlink ref="M13" r:id="rId9"/>
+    <hyperlink ref="M16" r:id="rId10"/>
+    <hyperlink ref="M14" r:id="rId11"/>
+    <hyperlink ref="M15" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
@@ -16005,7 +16269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16013,38 +16277,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -16370,24 +16634,24 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="77" t="s">
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="77" t="s">
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -1933,7 +1933,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물을</t>
+          <t>선물에</t>
         </r>
         <r>
           <rPr>
@@ -1952,7 +1952,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>받을</t>
+          <t>대한</t>
         </r>
         <r>
           <rPr>
@@ -1971,7 +1971,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>때</t>
+          <t>묘사를</t>
         </r>
         <r>
           <rPr>
@@ -1990,7 +1990,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>하나의</t>
+          <t>텍스트</t>
         </r>
         <r>
           <rPr>
@@ -2009,64 +2009,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대사</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> UI</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>들어갈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>텍스트를</t>
+          <t>형식으로</t>
         </r>
         <r>
           <rPr>
@@ -15388,7 +15331,7 @@
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16002,7 +15945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16269,7 +16212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2184,7 +2184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="243">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3035,9 +3035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_Coffee.prefab</t>
-  </si>
-  <si>
     <t>무분별한 호출로 인한 오류를 방지하기 위해 호출은 재사용 대기시간 5초로 지정한다. (public)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3261,6 +3258,50 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_skateboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_sushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_coke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Powder.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_ade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_penguin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5870,13 +5911,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
         <v>191</v>
       </c>
-      <c r="I28" t="s">
-        <v>192</v>
-      </c>
       <c r="J28" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -11082,7 +11123,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11604,7 +11645,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11630,7 +11671,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11683,10 +11724,10 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -11788,7 +11829,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="3"/>
@@ -12018,7 +12059,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -13004,7 +13045,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -13054,7 +13095,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -13080,7 +13121,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -13106,7 +13147,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -13132,7 +13173,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
@@ -13158,7 +13199,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="1"/>
@@ -15331,7 +15372,7 @@
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15397,7 +15438,7 @@
         <v>151</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M3" s="55" t="s">
         <v>154</v>
@@ -15441,7 +15482,7 @@
         <v>165</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M4" s="57" t="s">
         <v>166</v>
@@ -15450,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -15529,7 +15570,7 @@
         <v>174</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="O6" s="62"/>
     </row>
@@ -15538,7 +15579,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="64">
         <v>37.539805999999999</v>
@@ -15547,7 +15588,7 @@
         <v>127.122469</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="64">
         <v>1</v>
@@ -15566,9 +15607,11 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="N7" s="64"/>
+        <v>220</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>232</v>
+      </c>
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -15576,7 +15619,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="64">
         <v>37.539861999999999</v>
@@ -15585,7 +15628,7 @@
         <v>127.124106</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="64">
         <v>1</v>
@@ -15604,9 +15647,11 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="64"/>
+        <v>221</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>233</v>
+      </c>
       <c r="O8" s="64"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -15614,7 +15659,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="66">
         <v>37.540140000000001</v>
@@ -15623,7 +15668,7 @@
         <v>127.122688</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -15642,9 +15687,11 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="N9" s="64"/>
+        <v>222</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>235</v>
+      </c>
       <c r="O9" s="64"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -15652,7 +15699,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="64">
         <v>37.539150999999997</v>
@@ -15661,7 +15708,7 @@
         <v>127.12316800000001</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -15680,9 +15727,11 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="64"/>
+        <v>223</v>
+      </c>
+      <c r="N10" s="64" t="s">
+        <v>234</v>
+      </c>
       <c r="O10" s="64"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -15690,7 +15739,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="66">
         <v>37.539279999999998</v>
@@ -15699,7 +15748,7 @@
         <v>127.122348</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="64">
         <v>2</v>
@@ -15716,9 +15765,11 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="64"/>
+        <v>224</v>
+      </c>
+      <c r="N11" s="64" t="s">
+        <v>237</v>
+      </c>
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -15726,7 +15777,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="66">
         <v>37.539279999999998</v>
@@ -15735,7 +15786,7 @@
         <v>127.122348</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="64">
         <v>2</v>
@@ -15752,9 +15803,11 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="N12" s="64"/>
+        <v>225</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>238</v>
+      </c>
       <c r="O12" s="64"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -15762,7 +15815,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="66">
         <v>37.539279999999998</v>
@@ -15771,7 +15824,7 @@
         <v>127.122348</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" s="64">
         <v>2</v>
@@ -15788,9 +15841,11 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="N13" s="64"/>
+        <v>226</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>239</v>
+      </c>
       <c r="O13" s="64"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -15798,7 +15853,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="66">
         <v>37.539385000000003</v>
@@ -15807,7 +15862,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="64">
         <v>2</v>
@@ -15824,9 +15879,11 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" s="64"/>
+        <v>228</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>240</v>
+      </c>
       <c r="O14" s="64"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -15834,7 +15891,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="66">
         <v>37.539385000000003</v>
@@ -15843,7 +15900,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="64">
         <v>2</v>
@@ -15860,9 +15917,11 @@
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="N15" s="64"/>
+        <v>229</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>241</v>
+      </c>
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -15870,7 +15929,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="66">
         <v>37.539385000000003</v>
@@ -15879,7 +15938,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="64">
         <v>2</v>
@@ -15896,24 +15955,26 @@
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N16" s="64"/>
+        <v>227</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>242</v>
+      </c>
       <c r="O16" s="64"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -16113,22 +16174,22 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -16141,7 +16202,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -16164,7 +16225,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -16947,17 +17008,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -2184,7 +2184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="255">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3019,10 +3019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_Ketchup.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">커피가루 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3261,47 +3257,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_skateboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_burger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_sushi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_coke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Powder.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_ade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_cake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_duck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_penguin</t>
+    <t>g_Skateboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Sushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Ade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Penguin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Ketchup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Powder</t>
+  </si>
+  <si>
+    <t>i_Skateboard</t>
+  </si>
+  <si>
+    <t>i_Burger</t>
+  </si>
+  <si>
+    <t>i_Coke</t>
+  </si>
+  <si>
+    <t>i_Sushi</t>
+  </si>
+  <si>
+    <t>i_Coffee</t>
+  </si>
+  <si>
+    <t>i_Ade</t>
+  </si>
+  <si>
+    <t>i_Cake</t>
+  </si>
+  <si>
+    <t>i_Duck</t>
+  </si>
+  <si>
+    <t>i_Bus</t>
+  </si>
+  <si>
+    <t>i_Penguin</t>
+  </si>
+  <si>
+    <t>g_Ketchup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Powder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5491,7 +5528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5911,13 +5948,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
         <v>190</v>
       </c>
-      <c r="I28" t="s">
-        <v>191</v>
-      </c>
       <c r="J28" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -11123,7 +11160,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11645,7 +11682,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11671,7 +11708,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11724,10 +11761,10 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -11829,7 +11866,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="3"/>
@@ -12059,7 +12096,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -13045,7 +13082,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -13095,7 +13132,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -13121,7 +13158,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -13147,7 +13184,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -13173,7 +13210,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
@@ -13199,7 +13236,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="1"/>
@@ -15371,8 +15408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15438,7 +15475,7 @@
         <v>151</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M3" s="55" t="s">
         <v>154</v>
@@ -15482,7 +15519,7 @@
         <v>165</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M4" s="57" t="s">
         <v>166</v>
@@ -15491,7 +15528,7 @@
         <v>167</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -15530,16 +15567,18 @@
         <v>170</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="O5" s="62"/>
+        <v>253</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>2</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="62">
         <v>37.540224000000002</v>
@@ -15548,7 +15587,7 @@
         <v>127.12356200000001</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="62">
         <v>1</v>
@@ -15567,19 +15606,21 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="O6" s="62"/>
+        <v>254</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="64">
         <v>3</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="64">
         <v>37.539805999999999</v>
@@ -15588,7 +15629,7 @@
         <v>127.122469</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="64">
         <v>1</v>
@@ -15607,19 +15648,21 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="64"/>
+        <v>231</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="64">
         <v>4</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="64">
         <v>37.539861999999999</v>
@@ -15628,7 +15671,7 @@
         <v>127.124106</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="64">
         <v>1</v>
@@ -15647,19 +15690,21 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N8" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="64"/>
+        <v>232</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="64">
         <v>5</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="66">
         <v>37.540140000000001</v>
@@ -15668,7 +15713,7 @@
         <v>127.122688</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -15687,19 +15732,21 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N9" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="O9" s="64"/>
+        <v>233</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="64">
         <v>6</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="64">
         <v>37.539150999999997</v>
@@ -15708,7 +15755,7 @@
         <v>127.12316800000001</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -15727,19 +15774,21 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N10" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="62" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="64">
         <v>7</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="66">
         <v>37.539279999999998</v>
@@ -15748,7 +15797,7 @@
         <v>127.122348</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="64">
         <v>2</v>
@@ -15765,19 +15814,21 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N11" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="64"/>
+        <v>235</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="64">
         <v>8</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="66">
         <v>37.539279999999998</v>
@@ -15786,7 +15837,7 @@
         <v>127.122348</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G12" s="64">
         <v>2</v>
@@ -15803,19 +15854,21 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="O12" s="64"/>
+        <v>236</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="64">
         <v>9</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="66">
         <v>37.539279999999998</v>
@@ -15824,7 +15877,7 @@
         <v>127.122348</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G13" s="64">
         <v>2</v>
@@ -15841,19 +15894,21 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="O13" s="64"/>
+        <v>237</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="64">
         <v>10</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="66">
         <v>37.539385000000003</v>
@@ -15862,7 +15917,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="64">
         <v>2</v>
@@ -15879,19 +15934,21 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N14" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="O14" s="64"/>
+        <v>238</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="64">
         <v>11</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="66">
         <v>37.539385000000003</v>
@@ -15900,7 +15957,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="64">
         <v>2</v>
@@ -15917,19 +15974,21 @@
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N15" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="O15" s="64"/>
+        <v>239</v>
+      </c>
+      <c r="O15" s="62" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="64">
         <v>12</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="66">
         <v>37.539385000000003</v>
@@ -15938,7 +15997,7 @@
         <v>127.12275099999999</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16" s="64">
         <v>2</v>
@@ -15955,26 +16014,28 @@
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="O16" s="64"/>
+        <v>240</v>
+      </c>
+      <c r="O16" s="62" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -16174,22 +16235,22 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -16202,7 +16263,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -16225,7 +16286,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -17008,17 +17069,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -1330,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1340,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>KGA_25:</t>
+          <t>KGA_23:</t>
         </r>
         <r>
           <rPr>
@@ -1360,7 +1360,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -1379,7 +1379,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>획득</t>
+          <t>아이템에</t>
         </r>
         <r>
           <rPr>
@@ -1398,7 +1398,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>후</t>
+          <t>따른</t>
         </r>
         <r>
           <rPr>
@@ -1417,7 +1417,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>다시</t>
+          <t>하나의</t>
         </r>
         <r>
           <rPr>
@@ -1436,7 +1436,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물이</t>
+          <t>취향을</t>
         </r>
         <r>
           <rPr>
@@ -1455,7 +1455,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>생성되는</t>
+          <t>기재한다</t>
         </r>
         <r>
           <rPr>
@@ -1464,37 +1464,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타임
-단위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>초</t>
+          <t>. 
+1: Like
+2: Hate</t>
         </r>
       </text>
     </comment>
@@ -1547,7 +1519,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>아이템에</t>
+          <t>칼럼은</t>
         </r>
         <r>
           <rPr>
@@ -1556,7 +1528,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> "giftType"</t>
         </r>
         <r>
           <rPr>
@@ -1566,7 +1538,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>따른</t>
+          <t>의</t>
         </r>
         <r>
           <rPr>
@@ -1585,7 +1557,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>하나의</t>
+          <t>제어를</t>
         </r>
         <r>
           <rPr>
@@ -1604,7 +1576,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>취향을</t>
+          <t xml:space="preserve">받는다
+</t>
         </r>
         <r>
           <rPr>
@@ -1613,7 +1586,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">giftType=1: </t>
         </r>
         <r>
           <rPr>
@@ -1623,7 +1596,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기재한다</t>
+          <t>호감도</t>
         </r>
         <r>
           <rPr>
@@ -1632,9 +1605,133 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>. 
-1: Like
-2: Hate</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상승</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">giftType=2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>호감도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하락</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기재한다
+</t>
         </r>
       </text>
     </comment>
@@ -1668,7 +1765,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>해당</t>
+          <t>선물에</t>
         </r>
         <r>
           <rPr>
@@ -1687,7 +1784,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>칼럼은</t>
+          <t>대한</t>
         </r>
         <r>
           <rPr>
@@ -1696,7 +1793,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> "giftType"</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1706,7 +1803,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>의</t>
+          <t>묘사를</t>
         </r>
         <r>
           <rPr>
@@ -1725,7 +1822,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>제어를</t>
+          <t>텍스트</t>
         </r>
         <r>
           <rPr>
@@ -1744,8 +1841,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">받는다
-</t>
+          <t>형식으로</t>
         </r>
         <r>
           <rPr>
@@ -1754,7 +1850,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">giftType=1: </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1764,7 +1860,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>호감도</t>
+          <t>기입한다</t>
         </r>
         <r>
           <rPr>
@@ -1773,133 +1869,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상승</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기재한다
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">giftType=2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>호감도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>하락</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">기재한다
-</t>
+          <t xml:space="preserve">. </t>
         </r>
       </text>
     </comment>
@@ -1933,7 +1903,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선물에</t>
+          <t>해당</t>
         </r>
         <r>
           <rPr>
@@ -1952,7 +1922,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대한</t>
+          <t>선물을</t>
         </r>
         <r>
           <rPr>
@@ -1971,7 +1941,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>묘사를</t>
+          <t>받고</t>
         </r>
         <r>
           <rPr>
@@ -1990,7 +1960,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>텍스트</t>
+          <t>반응하는</t>
         </r>
         <r>
           <rPr>
@@ -2009,7 +1979,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>형식으로</t>
+          <t>캐릭터</t>
         </r>
         <r>
           <rPr>
@@ -2028,7 +1998,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>기입한다</t>
+          <t>대사를</t>
         </r>
         <r>
           <rPr>
@@ -2037,11 +2007,189 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_25:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선물이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타임
+단위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="261">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3011,10 +3159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노브랜드 버거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://assetstore.unity.com/packages/3d/props/food/food-pack-free-demo-225294</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3023,10 +3167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>커피빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://assetstore.unity.com/packages/3d/props/lowpoly-fantasy-bags-156997</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3185,71 +3325,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스시진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/vehicles/land/bicycle-scooter-skateboard-170056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/free-casual-food-pack-mobile-vr-85884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/cola-can-96659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/food/japanese-food-sushi-free-158209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/publishers/46269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/6-x-3d-cute-toy-models-105033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/super-rubber-duck-pack-34781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/vehicles/children-s-wooden-toys-free-truck-pack-97476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Skateboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Burger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Sushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Ade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Cake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Penguin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Ketchup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Powder</t>
+  </si>
+  <si>
+    <t>i_Skateboard</t>
+  </si>
+  <si>
+    <t>i_Burger</t>
+  </si>
+  <si>
+    <t>i_Coke</t>
+  </si>
+  <si>
+    <t>i_Sushi</t>
+  </si>
+  <si>
+    <t>i_Coffee</t>
+  </si>
+  <si>
+    <t>i_Ade</t>
+  </si>
+  <si>
+    <t>i_Cake</t>
+  </si>
+  <si>
+    <t>i_Duck</t>
+  </si>
+  <si>
+    <t>i_Bus</t>
+  </si>
+  <si>
+    <t>i_Penguin</t>
+  </si>
+  <si>
+    <t>g_Ketchup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_Powder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>보드 팩토리샵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>롯데리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스시진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CU 편의점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피베이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 종합 문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/vehicles/land/bicycle-scooter-skateboard-170056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/props/food/free-casual-food-pack-mobile-vr-85884</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/cola-can-96659</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/props/food/japanese-food-sushi-free-158209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/publishers/46269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/publishers/46269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/publishers/46269</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/characters/6-x-3d-cute-toy-models-105033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/props/super-rubber-duck-pack-34781</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://assetstore.unity.com/packages/3d/vehicles/children-s-wooden-toys-free-truck-pack-97476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giftText</t>
+    <t>charText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3257,88 +3474,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_Skateboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Burger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Coke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Sushi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Ade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Cake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Duck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Penguin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Ketchup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Powder</t>
-  </si>
-  <si>
-    <t>i_Skateboard</t>
-  </si>
-  <si>
-    <t>i_Burger</t>
-  </si>
-  <si>
-    <t>i_Coke</t>
-  </si>
-  <si>
-    <t>i_Sushi</t>
-  </si>
-  <si>
-    <t>i_Coffee</t>
-  </si>
-  <si>
-    <t>i_Ade</t>
-  </si>
-  <si>
-    <t>i_Cake</t>
-  </si>
-  <si>
-    <t>i_Duck</t>
-  </si>
-  <si>
-    <t>i_Bus</t>
-  </si>
-  <si>
-    <t>i_Penguin</t>
-  </si>
-  <si>
-    <t>g_Ketchup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_Powder</t>
+    <t xml:space="preserve">유료/무료/코인only 180초로 
+처리로 변경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 천호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 천호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 천호점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐 일레븐 천호피렌체점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아 천호역점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브영 천호현대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐 일레븐 천호피렌체점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노브랜드버거 천호역점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피빈 천호역점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3533,7 +3706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3656,6 +3829,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3665,7 +3864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3897,6 +4096,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4035,192 +4243,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347384</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>67995</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>2004</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="그룹 8"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7451913" y="13200529"/>
-          <a:ext cx="6556200" cy="6445387"/>
-          <a:chOff x="3306535" y="730704"/>
-          <a:chExt cx="6578611" cy="6344534"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="그림 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3306535" y="730704"/>
-            <a:ext cx="6578611" cy="6344534"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="직사각형 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="4162425"/>
-            <a:ext cx="2895600" cy="1171575"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5743575" y="4152900"/>
-            <a:ext cx="9525" cy="1257300"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="TextBox 13"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3714750" y="4486275"/>
-            <a:ext cx="2000250" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>유료 선물일 경우 경고 안내</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -4242,7 +4264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="-133" t="2211" r="1207" b="1024"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -4686,6 +4708,282 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347384</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67995</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2004</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="그룹 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7451913" y="13200529"/>
+          <a:ext cx="6556200" cy="6445387"/>
+          <a:chOff x="7451913" y="13200529"/>
+          <a:chExt cx="6556200" cy="6445387"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="그룹 8"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7451913" y="13200529"/>
+            <a:ext cx="6556200" cy="6445387"/>
+            <a:chOff x="3306535" y="730704"/>
+            <a:chExt cx="6578611" cy="6344534"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="그림 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3306535" y="730704"/>
+              <a:ext cx="6578611" cy="6344534"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="직사각형 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="4162425"/>
+              <a:ext cx="2895600" cy="1171575"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5743575" y="4152900"/>
+              <a:ext cx="9525" cy="1257300"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3714750" y="4486275"/>
+              <a:ext cx="2000250" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>유료 선물일 경우 경고 안내</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="TextBox 1"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11833412" y="18321619"/>
+            <a:ext cx="2061882" cy="627530"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>3. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>선물을 받고 캐릭터의 관련 대사</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>UI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>와 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t>anim/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>표정</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>출력</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5528,7 +5826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5948,13 +6246,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -11160,7 +11458,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11682,7 +11980,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -11708,7 +12006,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -11761,10 +12059,10 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -11866,7 +12164,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="3"/>
@@ -12096,7 +12394,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -13082,7 +13380,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -13132,7 +13430,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -13158,7 +13456,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="1"/>
@@ -13184,7 +13482,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="1"/>
@@ -13210,7 +13508,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="1"/>
@@ -13236,7 +13534,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="1"/>
@@ -15406,10 +15704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O46"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15417,15 +15715,16 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1"/>
-    <col min="13" max="13" width="88.125" customWidth="1"/>
-    <col min="14" max="14" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="88.125" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
         <v>150</v>
       </c>
@@ -15442,8 +15741,9 @@
       <c r="M2" s="76"/>
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
         <v>152</v>
       </c>
@@ -15466,28 +15766,31 @@
         <v>152</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>151</v>
       </c>
       <c r="K3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="55" t="s">
+      <c r="N3" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="O3" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="59" t="s">
+      <c r="P3" s="59" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>156</v>
       </c>
@@ -15510,28 +15813,31 @@
         <v>159</v>
       </c>
       <c r="I4" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" s="57" t="s">
+      <c r="N4" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="O4" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="O4" s="58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>1</v>
       </c>
@@ -15545,7 +15851,7 @@
         <v>127.123299</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="G5" s="62">
         <v>1</v>
@@ -15554,31 +15860,32 @@
         <v>0</v>
       </c>
       <c r="I5" s="62">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="J5" s="62">
-        <v>2</v>
-      </c>
-      <c r="K5" s="62">
         <v>10</v>
       </c>
+      <c r="K5" s="62"/>
       <c r="L5" s="62"/>
-      <c r="M5" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>253</v>
+      <c r="M5" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="N5" s="63" t="s">
+        <v>169</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>2</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="62">
         <v>37.540224000000002</v>
@@ -15587,7 +15894,7 @@
         <v>127.12356200000001</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="G6" s="62">
         <v>1</v>
@@ -15596,31 +15903,30 @@
         <v>0</v>
       </c>
       <c r="I6" s="62">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J6" s="62">
-        <v>1</v>
-      </c>
-      <c r="K6" s="62">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K6" s="62"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>254</v>
+      <c r="M6" s="78"/>
+      <c r="N6" s="63" t="s">
+        <v>171</v>
       </c>
       <c r="O6" s="62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="64">
         <v>3</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" s="64">
         <v>37.539805999999999</v>
@@ -15629,7 +15935,7 @@
         <v>127.122469</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G7" s="64">
         <v>1</v>
@@ -15638,31 +15944,30 @@
         <v>0</v>
       </c>
       <c r="I7" s="64">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="J7" s="64">
-        <v>2</v>
-      </c>
-      <c r="K7" s="64">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K7" s="64"/>
       <c r="L7" s="64"/>
-      <c r="M7" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="78"/>
+      <c r="N7" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="64">
         <v>4</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="64">
         <v>37.539861999999999</v>
@@ -15671,7 +15976,7 @@
         <v>127.124106</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G8" s="64">
         <v>1</v>
@@ -15680,40 +15985,39 @@
         <v>0</v>
       </c>
       <c r="I8" s="64">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="J8" s="64">
-        <v>2</v>
-      </c>
-      <c r="K8" s="64">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K8" s="64"/>
       <c r="L8" s="64"/>
-      <c r="M8" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="78"/>
+      <c r="N8" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="64">
         <v>5</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="66">
-        <v>37.540140000000001</v>
+        <v>37.540882000000003</v>
       </c>
       <c r="E9" s="64">
-        <v>127.122688</v>
+        <v>127.12443500000001</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="G9" s="64">
         <v>1</v>
@@ -15722,31 +16026,30 @@
         <v>0</v>
       </c>
       <c r="I9" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J9" s="64">
-        <v>1</v>
-      </c>
-      <c r="K9" s="64">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K9" s="64"/>
       <c r="L9" s="64"/>
-      <c r="M9" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="N9" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="62" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="78"/>
+      <c r="N9" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="64">
         <v>6</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="64">
         <v>37.539150999999997</v>
@@ -15755,7 +16058,7 @@
         <v>127.12316800000001</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G10" s="64">
         <v>1</v>
@@ -15764,298 +16067,304 @@
         <v>0</v>
       </c>
       <c r="I10" s="64">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="J10" s="64">
-        <v>1</v>
-      </c>
-      <c r="K10" s="64">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K10" s="64"/>
       <c r="L10" s="64"/>
-      <c r="M10" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="N10" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="O10" s="62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="78"/>
+      <c r="N10" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="O10" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="64">
         <v>7</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="66">
-        <v>37.539279999999998</v>
+        <v>37.541139999999999</v>
       </c>
       <c r="E11" s="64">
-        <v>127.122348</v>
+        <v>127.124094</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="G11" s="64">
         <v>2</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="64">
+        <v>150</v>
+      </c>
       <c r="I11" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J11" s="64">
-        <v>1</v>
-      </c>
-      <c r="K11" s="64">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K11" s="64"/>
       <c r="L11" s="64"/>
-      <c r="M11" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="O11" s="62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="78"/>
+      <c r="N11" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="64">
         <v>8</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="66">
-        <v>37.539279999999998</v>
+        <v>37.541139999999999</v>
       </c>
       <c r="E12" s="64">
-        <v>127.122348</v>
+        <v>127.124094</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="G12" s="64">
         <v>2</v>
       </c>
-      <c r="H12" s="64"/>
+      <c r="H12" s="64">
+        <v>150</v>
+      </c>
       <c r="I12" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J12" s="64">
-        <v>1</v>
-      </c>
-      <c r="K12" s="64">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K12" s="64"/>
       <c r="L12" s="64"/>
-      <c r="M12" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="N12" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="O12" s="62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="78"/>
+      <c r="N12" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="64">
         <v>9</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="66">
-        <v>37.539279999999998</v>
+        <v>37.541139999999999</v>
       </c>
       <c r="E13" s="64">
-        <v>127.122348</v>
+        <v>127.124094</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="G13" s="64">
         <v>2</v>
       </c>
-      <c r="H13" s="64"/>
+      <c r="H13" s="64">
+        <v>200</v>
+      </c>
       <c r="I13" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J13" s="64">
-        <v>1</v>
-      </c>
-      <c r="K13" s="64">
-        <v>60</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K13" s="64"/>
       <c r="L13" s="64"/>
-      <c r="M13" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="N13" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="78"/>
+      <c r="N13" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="64">
         <v>10</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" s="66">
-        <v>37.539385000000003</v>
+        <v>37.541299000000002</v>
       </c>
       <c r="E14" s="64">
-        <v>127.12275099999999</v>
+        <v>127.124951</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="G14" s="64">
         <v>2</v>
       </c>
-      <c r="H14" s="64"/>
+      <c r="H14" s="64">
+        <v>800</v>
+      </c>
       <c r="I14" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J14" s="64">
-        <v>1</v>
-      </c>
-      <c r="K14" s="64">
-        <v>80</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K14" s="64"/>
       <c r="L14" s="64"/>
-      <c r="M14" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="N14" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="78"/>
+      <c r="N14" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="64">
         <v>11</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="66">
-        <v>37.539385000000003</v>
+        <v>37.541299000000002</v>
       </c>
       <c r="E15" s="64">
-        <v>127.12275099999999</v>
+        <v>127.124951</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="G15" s="64">
         <v>2</v>
       </c>
-      <c r="H15" s="64"/>
+      <c r="H15" s="64">
+        <v>200</v>
+      </c>
       <c r="I15" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J15" s="64">
-        <v>2</v>
-      </c>
-      <c r="K15" s="64">
         <v>20</v>
       </c>
+      <c r="K15" s="64"/>
       <c r="L15" s="64"/>
-      <c r="M15" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N15" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M15" s="78"/>
+      <c r="N15" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="P15" s="62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="64">
         <v>12</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="66">
-        <v>37.539385000000003</v>
+        <v>37.541299000000002</v>
       </c>
       <c r="E16" s="64">
-        <v>127.12275099999999</v>
+        <v>127.124951</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="G16" s="64">
         <v>2</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="64">
+        <v>1000</v>
+      </c>
       <c r="I16" s="64">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J16" s="64">
-        <v>2</v>
-      </c>
-      <c r="K16" s="64">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K16" s="64"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="N16" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="O16" s="62" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>202</v>
+      <c r="M16" s="79"/>
+      <c r="N16" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="M5:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1"/>
-    <hyperlink ref="M6" r:id="rId2"/>
-    <hyperlink ref="M7" r:id="rId3"/>
-    <hyperlink ref="M8" r:id="rId4"/>
-    <hyperlink ref="M9" r:id="rId5"/>
-    <hyperlink ref="M10" r:id="rId6"/>
-    <hyperlink ref="M11" r:id="rId7"/>
-    <hyperlink ref="M12" r:id="rId8"/>
-    <hyperlink ref="M13" r:id="rId9"/>
-    <hyperlink ref="M16" r:id="rId10"/>
-    <hyperlink ref="M14" r:id="rId11"/>
-    <hyperlink ref="M15" r:id="rId12"/>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="N6" r:id="rId2"/>
+    <hyperlink ref="N7" r:id="rId3"/>
+    <hyperlink ref="N8" r:id="rId4"/>
+    <hyperlink ref="N9" r:id="rId5"/>
+    <hyperlink ref="N10" r:id="rId6"/>
+    <hyperlink ref="N11" r:id="rId7"/>
+    <hyperlink ref="N12" r:id="rId8"/>
+    <hyperlink ref="N13" r:id="rId9"/>
+    <hyperlink ref="N16" r:id="rId10"/>
+    <hyperlink ref="N14" r:id="rId11"/>
+    <hyperlink ref="N15" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -16078,33 +16387,33 @@
       <c r="B2" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19"/>
@@ -16235,22 +16544,22 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -16263,7 +16572,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -16286,7 +16595,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -16699,24 +17008,24 @@
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="78" t="s">
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="78" t="s">
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="85"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
@@ -17069,17 +17378,17 @@
         <v>13</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -2332,7 +2332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="285">
   <si>
     <t>기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3512,6 +3512,102 @@
   </si>
   <si>
     <t>커피빈 천호역점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거 가게에 있던 케챱. 달콤하고 맛있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려한 무늬가 그려진 보드. 어려워보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 맛이 들어간 유명 햄버거.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페에서 무료로 나눠주는 커피가루. 냄새제거 효과가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 유행하는 특이한 맛의 콜라. 호불호가 갈린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어가 올라간 초밥. 윤기가 흐른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 맛의 편의점 커피. 간편하게 먹기 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티라미슈 케이크. 편의점 케이크지만 유명하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 오리인형. 부드럽고 폭신폭신하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아동용 버스 장난감. 디테일이 살아있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 펭귄 인형. 눈이 똘망똘망하게 생겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런것도 들고다녀…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와, 기숙사에 필요했는데! 고마워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으음…이건 내가 타기엔 어려워 보이는걸…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 입맛엔 조금 짠 것 같아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 콜라에서 우주맛이날까? 너무 신기하다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 한국에서 먹는 일식은 맛이 미묘해서 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐아아암 졸렸는데 잘됐다. 고마워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라임맛 에이드. 연두빛이 아름답다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라임은 어떻게 이런색일까? 언제봐도 아름답다니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 이 케이크 요즘 구하기 어렵던데 어떻게 구했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸하하 이 오리 너 닮았다! 귀여워~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 버스, 선반 빈자리에 넣으면 딱 맞겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘부터 이 인형 끌어안고 자야겠다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5826,7 +5922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15706,9 +15802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15865,8 +15959,12 @@
       <c r="J5" s="62">
         <v>10</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="K5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>272</v>
+      </c>
       <c r="M5" s="77" t="s">
         <v>251</v>
       </c>
@@ -15908,8 +16006,12 @@
       <c r="J6" s="62">
         <v>5</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="K6" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>273</v>
+      </c>
       <c r="M6" s="78"/>
       <c r="N6" s="63" t="s">
         <v>171</v>
@@ -15949,8 +16051,12 @@
       <c r="J7" s="64">
         <v>10</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>274</v>
+      </c>
       <c r="M7" s="78"/>
       <c r="N7" s="67" t="s">
         <v>212</v>
@@ -15990,8 +16096,12 @@
       <c r="J8" s="64">
         <v>10</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>275</v>
+      </c>
       <c r="M8" s="78"/>
       <c r="N8" s="67" t="s">
         <v>213</v>
@@ -16031,8 +16141,12 @@
       <c r="J9" s="64">
         <v>10</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>276</v>
+      </c>
       <c r="M9" s="78"/>
       <c r="N9" s="67" t="s">
         <v>214</v>
@@ -16072,8 +16186,12 @@
       <c r="J10" s="64">
         <v>5</v>
       </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>277</v>
+      </c>
       <c r="M10" s="78"/>
       <c r="N10" s="67" t="s">
         <v>215</v>
@@ -16113,8 +16231,12 @@
       <c r="J11" s="64">
         <v>15</v>
       </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
+      <c r="K11" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>278</v>
+      </c>
       <c r="M11" s="78"/>
       <c r="N11" s="67" t="s">
         <v>216</v>
@@ -16154,8 +16276,12 @@
       <c r="J12" s="64">
         <v>15</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>280</v>
+      </c>
       <c r="M12" s="78"/>
       <c r="N12" s="67" t="s">
         <v>217</v>
@@ -16195,8 +16321,12 @@
       <c r="J13" s="64">
         <v>20</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>281</v>
+      </c>
       <c r="M13" s="78"/>
       <c r="N13" s="67" t="s">
         <v>218</v>
@@ -16236,8 +16366,12 @@
       <c r="J14" s="64">
         <v>40</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
+      <c r="K14" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>282</v>
+      </c>
       <c r="M14" s="78"/>
       <c r="N14" s="67" t="s">
         <v>220</v>
@@ -16277,8 +16411,12 @@
       <c r="J15" s="64">
         <v>20</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>283</v>
+      </c>
       <c r="M15" s="78"/>
       <c r="N15" s="67" t="s">
         <v>221</v>
@@ -16318,8 +16456,12 @@
       <c r="J16" s="64">
         <v>50</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>284</v>
+      </c>
       <c r="M16" s="79"/>
       <c r="N16" s="67" t="s">
         <v>219</v>

--- a/00.기획서/221102_산책 기획서_V120.xlsx
+++ b/00.기획서/221102_산책 기획서_V120.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="0.목차" sheetId="10" r:id="rId1"/>
@@ -5922,7 +5922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15802,7 +15802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
